--- a/data/taxon genera files/F genera reduced.xlsx
+++ b/data/taxon genera files/F genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1061">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been ascribed.&gt;</t>
   </si>
@@ -15664,6 +15664,111 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Kalgutkar 1997</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fostericysta scarffei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Tykoezinski et al.) Riding 2005b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Foveolatitriletes crassus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orlowska-Zwolinska</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Filisphaeridium balmei </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Sarjeant) Sarjeant &amp; Stancliffe 1994</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filisphaeridium castaninum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Valensi) Sarjeant &amp; Stancliffe 1994</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filisphaeridium densispiinum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Valensi) Sarjeant &amp; Stancliffe 1994</t>
     </r>
   </si>
 </sst>
@@ -16204,10 +16309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1060"/>
+  <dimension ref="A1:N1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
-      <selection activeCell="K1039" sqref="K1039"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="Q274" sqref="Q274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17674,1522 +17779,1474 @@
         <v>160</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E265" s="1" t="s">
+    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E265" s="27" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E266" s="2" t="s">
+    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E267" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E268" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="1" t="s">
-        <v>873</v>
+        <v>164</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E271" s="1" t="s">
-        <v>165</v>
+        <v>874</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E272" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E274" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E275" s="3" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E273" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E274" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E275" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>620</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E277" s="2" t="s">
-        <v>169</v>
+      <c r="E277" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E278" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E279" s="2" t="s">
-        <v>171</v>
+        <v>620</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E280" s="2" t="s">
-        <v>837</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E281" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E282" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E283" s="2" t="s">
-        <v>174</v>
+        <v>837</v>
       </c>
     </row>
     <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E284" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B285" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="E285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E286" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E287" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E289" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B287" s="5" t="s">
+    <row r="290" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E288" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B289" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E290" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="E290" s="2"/>
     </row>
     <row r="291" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E292" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="B292" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E292" s="2"/>
     </row>
     <row r="293" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B293" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E293" s="1"/>
+      <c r="E293" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="294" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E294" s="2" t="s">
-        <v>178</v>
+        <v>843</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E295" s="2" t="s">
-        <v>179</v>
+      <c r="E295" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E296" s="1" t="s">
-        <v>845</v>
-      </c>
+      <c r="B296" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E296" s="1"/>
     </row>
     <row r="297" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E297" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B299" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="E299" s="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="300" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E300" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E301" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B302" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E303" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B301" s="5" t="s">
+    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B304" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E302" s="1" t="s">
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E305" s="1" t="s">
         <v>848</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B303" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E303" s="1"/>
-    </row>
-    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E304" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E305" s="2" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B306" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E306" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="E306" s="1"/>
     </row>
     <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E307" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>184</v>
+        <v>851</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B309" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E311" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B312" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E310" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B311" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E312" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="E312" s="2"/>
     </row>
     <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E313" s="2" t="s">
-        <v>186</v>
+        <v>625</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E314" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="B314" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="E314" s="2"/>
     </row>
     <row r="315" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E315" s="2" t="s">
-        <v>853</v>
+        <v>185</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B316" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="E316" s="2"/>
+      <c r="E316" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="317" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E317" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E318" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B319" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E320" s="2" t="s">
         <v>855</v>
-      </c>
-    </row>
-    <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B318" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D319" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E320" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B321" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D322" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E323" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B324" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E321" s="1"/>
-    </row>
-    <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E322" s="1" t="s">
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E325" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B323" s="5" t="s">
+    <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="E323" s="1"/>
-    </row>
-    <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E324" s="1" t="s">
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E327" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B325" s="5" t="s">
+    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B328" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="1"/>
-    </row>
-    <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E326" s="1" t="s">
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E329" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E327" s="2" t="s">
+    <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E330" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E328" s="1" t="s">
+    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E331" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B329" s="5" t="s">
+    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E329" s="1"/>
-    </row>
-    <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E330" s="4" t="s">
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E333" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E331" s="4" t="s">
+    <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E334" s="4" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E332" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E333" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E334" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E335" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E336" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E337" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E338" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E341" s="3" t="s">
-        <v>950</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E341" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E344" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E344" s="3" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E345" s="1" t="s">
-        <v>630</v>
+        <v>200</v>
       </c>
     </row>
     <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E347" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E348" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E350" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E351" s="1" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E349" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E350" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E351" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E352" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E353" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="354" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E354" s="1" t="s">
-        <v>211</v>
+      <c r="E354" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E355" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="356" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E356" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E357" s="9" t="s">
-        <v>1003</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E358" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E359" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E360" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E360" s="9" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E361" s="1" t="s">
-        <v>217</v>
+      <c r="E361" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="362" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E363" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E364" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E365" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E366" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E364" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B365" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D366" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E366" s="2"/>
     </row>
     <row r="367" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E368" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="B368" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E368" s="2"/>
     </row>
     <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E369" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="D369" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E371" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B372" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E372" s="2"/>
+      <c r="E372" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E373" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E374" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B375" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E376" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E374" s="3" t="s">
+    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E377" s="3" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E375" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E376" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E377" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E379" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E380" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E381" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E382" s="3" t="s">
         <v>927</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E380" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E381" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E382" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E383" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E384" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E385" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E386" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E384" s="3" t="s">
+    <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E387" s="3" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E385" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E386" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E387" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="388" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E388" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E389" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E390" s="3" t="s">
-        <v>926</v>
+      <c r="E389" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E390" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E391" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E392" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E393" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E392" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E393" s="3" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="394" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E394" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E395" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E396" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E397" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E398" s="3" t="s">
         <v>930</v>
-      </c>
-    </row>
-    <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E396" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E397" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E398" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E399" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E400" s="3" t="s">
-        <v>931</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E400" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E401" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E402" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E403" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E402" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E403" s="3" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="404" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E404" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E405" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E405" s="3" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="406" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E406" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E407" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E408" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E409" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E410" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="411" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E411" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="412" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E412" s="3" t="s">
-        <v>933</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E412" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="413" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E413" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="414" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E414" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E415" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E414" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E415" s="3" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="416" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E416" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E417" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E417" s="3" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E419" s="3" t="s">
-        <v>935</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E419" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E421" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E422" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E421" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E422" s="3" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E423" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E424" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E425" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E426" s="2" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E424" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E425" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E426" s="3" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E427" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E428" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E428" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E429" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="430" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E430" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E431" s="3" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E432" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E431" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E432" s="3" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="433" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E433" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="434" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E434" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E435" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="436" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E436" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E437" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E437" s="3" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="438" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E438" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E439" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E440" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E441" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B439" s="5" t="s">
+    <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B442" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="E439" s="2"/>
-    </row>
-    <row r="440" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E440" s="4" t="s">
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E443" s="4" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E441" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E442" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="443" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E443" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E444" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E445" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E446" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E447" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E445" s="1" t="s">
+    <row r="448" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E448" s="1" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="446" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E446" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E447" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="448" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E448" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E449" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B450" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E450" s="2"/>
+      <c r="E450" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="451" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E451" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E452" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B453" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E454" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B452" s="5" t="s">
+    <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B455" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="E452" s="2"/>
-    </row>
-    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E453" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A454"/>
-      <c r="B454" s="10"/>
-      <c r="C454" s="11"/>
-      <c r="D454" s="12"/>
-      <c r="E454" s="9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F454" s="23"/>
-      <c r="G454" s="24"/>
-      <c r="H454" s="25"/>
-      <c r="I454" s="26"/>
-      <c r="J454" s="26"/>
-      <c r="K454" s="26"/>
-      <c r="L454" s="26"/>
-      <c r="M454" s="26"/>
-    </row>
-    <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E455" s="3" t="s">
-        <v>951</v>
-      </c>
+      <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E456" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A457"/>
+      <c r="B457" s="10"/>
+      <c r="C457" s="11"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F457" s="23"/>
+      <c r="G457" s="24"/>
+      <c r="H457" s="25"/>
+      <c r="I457" s="26"/>
+      <c r="J457" s="26"/>
+      <c r="K457" s="26"/>
+      <c r="L457" s="26"/>
+      <c r="M457" s="26"/>
+    </row>
+    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E458" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E459" s="1" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E457" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E458" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E459" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E460" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="461" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E461" s="2" t="s">
-        <v>709</v>
+        <v>283</v>
       </c>
     </row>
     <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B462" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E462" s="2"/>
+      <c r="E462" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E463" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E464" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B465" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E466" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B464" s="5" t="s">
+    <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B467" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="E464" s="2"/>
-    </row>
-    <row r="465" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E465" s="2" t="s">
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E468" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B466" s="5" t="s">
+    <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B469" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E466" s="2"/>
-    </row>
-    <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E467" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B468" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E468" s="1"/>
-    </row>
-    <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E469" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="E469" s="2"/>
     </row>
     <row r="470" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E470" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B471" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E472" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E473" s="1" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E471" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B472" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="E472" s="2"/>
-    </row>
-    <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E473" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E474" s="2" t="s">
-        <v>714</v>
+        <v>287</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E475" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="B475" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E475" s="2"/>
     </row>
     <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B476" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E476" s="2"/>
+      <c r="E476" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E477" s="2" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B478" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E478" s="2"/>
+      <c r="E478" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E479" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="B479" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="E479" s="2"/>
     </row>
     <row r="480" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E480" s="2" t="s">
-        <v>920</v>
+        <v>678</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E481" s="20" t="s">
-        <v>1032</v>
-      </c>
+      <c r="B481" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E481" s="2"/>
     </row>
     <row r="482" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>919</v>
+        <v>290</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E483" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E484" s="20" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E485" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E486" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A484"/>
-      <c r="B484" s="10"/>
-      <c r="C484" s="11"/>
-      <c r="D484" s="12"/>
-      <c r="E484" s="9" t="s">
+    <row r="487" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A487"/>
+      <c r="B487" s="10"/>
+      <c r="C487" s="11"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="F484" s="23"/>
-      <c r="G484" s="24"/>
-      <c r="H484" s="25"/>
-      <c r="I484" s="26"/>
-      <c r="J484" s="26"/>
-      <c r="K484" s="26"/>
-      <c r="L484" s="26"/>
-      <c r="M484" s="26"/>
-    </row>
-    <row r="485" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E485" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E486" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="487" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E487" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="F487" s="23"/>
+      <c r="G487" s="24"/>
+      <c r="H487" s="25"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="26"/>
+      <c r="M487" s="26"/>
     </row>
     <row r="488" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E488" s="1" t="s">
-        <v>918</v>
+        <v>292</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E489" s="20" t="s">
-        <v>1033</v>
+      <c r="E489" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="490" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E490" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E491" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E492" s="20" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E493" s="1" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E491" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E492" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E493" s="2" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="494" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E494" s="2" t="s">
-        <v>916</v>
+        <v>295</v>
       </c>
     </row>
     <row r="495" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E495" s="2" t="s">
-        <v>915</v>
+        <v>296</v>
       </c>
     </row>
     <row r="496" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E496" s="2" t="s">
-        <v>297</v>
+        <v>917</v>
       </c>
     </row>
     <row r="497" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E497" s="2" t="s">
-        <v>675</v>
+        <v>916</v>
       </c>
     </row>
     <row r="498" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E498" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="499" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E499" s="2" t="s">
-        <v>914</v>
+        <v>297</v>
       </c>
     </row>
     <row r="500" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E500" s="2" t="s">
-        <v>912</v>
+        <v>675</v>
       </c>
     </row>
     <row r="501" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E501" s="2" t="s">
-        <v>298</v>
+        <v>913</v>
       </c>
     </row>
     <row r="502" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E502" s="2" t="s">
-        <v>299</v>
+        <v>914</v>
       </c>
     </row>
     <row r="503" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E503" s="2" t="s">
-        <v>300</v>
+        <v>912</v>
       </c>
     </row>
     <row r="504" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E504" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="505" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E505" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E506" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B507" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E507" s="2"/>
+      <c r="E507" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="508" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E508" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E509" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B510" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E511" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B509" s="5" t="s">
+    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B512" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E509" s="2"/>
-    </row>
-    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E510" s="2" t="s">
+      <c r="E512" s="2"/>
+    </row>
+    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E513" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B511" s="5" t="s">
+    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B514" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E512" s="2" t="s">
+      <c r="E514" s="2"/>
+    </row>
+    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E515" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B513" s="5" t="s">
+    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B516" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E514" s="2" t="s">
+      <c r="E516" s="2"/>
+    </row>
+    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E517" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B515" s="5" t="s">
+    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B518" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E515" s="2"/>
-    </row>
-    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C516" s="7" t="s">
+      <c r="E518" s="2"/>
+    </row>
+    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C519" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="E516" s="2"/>
-    </row>
-    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D517" s="6" t="s">
+      <c r="E519" s="2"/>
+    </row>
+    <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D520" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="E517" s="2"/>
-    </row>
-    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E518" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B519" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E519" s="2"/>
-    </row>
-    <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E520" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="E520" s="2"/>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E521" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E522" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B523" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E523" s="2"/>
+    </row>
+    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E524" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E525" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B522" s="5" t="s">
+    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B526" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E522" s="2"/>
-    </row>
-    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E523" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B524" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E524" s="2"/>
-    </row>
-    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E525" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E526" s="3" t="s">
-        <v>967</v>
-      </c>
+      <c r="E526" s="2"/>
     </row>
     <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E527" s="2" t="s">
-        <v>307</v>
+        <v>638</v>
       </c>
     </row>
     <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E528" s="1" t="s">
-        <v>723</v>
-      </c>
+      <c r="B528" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E528" s="2"/>
     </row>
     <row r="529" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E529" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="530" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E530" s="1" t="s">
-        <v>309</v>
+      <c r="E529" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E530" s="3" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="531" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E531" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="532" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E532" s="2" t="s">
-        <v>311</v>
+      <c r="E532" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="533" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E533" s="2" t="s">
-        <v>312</v>
+      <c r="E533" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E534" s="2" t="s">
-        <v>313</v>
+      <c r="E534" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="535" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E535" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="536" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E536" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E537" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E538" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E539" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E540" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B537" s="5" t="s">
+    <row r="541" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B541" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E537" s="2"/>
-    </row>
-    <row r="538" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C538" s="7" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="542" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C542" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="539" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E539" s="1" t="s">
+      <c r="E542" s="2"/>
+    </row>
+    <row r="543" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E543" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="540" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A540"/>
-      <c r="B540" s="10"/>
-      <c r="C540" s="11"/>
-      <c r="D540" s="6"/>
-      <c r="E540" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F540" s="23"/>
-      <c r="G540" s="24"/>
-      <c r="H540" s="25"/>
-      <c r="I540" s="26"/>
-      <c r="J540" s="26"/>
-      <c r="K540" s="26"/>
-      <c r="L540" s="26"/>
-      <c r="M540" s="26"/>
-    </row>
-    <row r="541" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A541"/>
-      <c r="B541" s="10"/>
-      <c r="C541" s="11"/>
-      <c r="D541" s="6"/>
-      <c r="E541" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F541" s="23"/>
-      <c r="G541" s="24"/>
-      <c r="H541" s="25"/>
-      <c r="I541" s="26"/>
-      <c r="J541" s="26"/>
-      <c r="K541" s="26"/>
-      <c r="L541" s="26"/>
-      <c r="M541" s="26"/>
-    </row>
-    <row r="542" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A542"/>
-      <c r="B542" s="10"/>
-      <c r="C542" s="11"/>
-      <c r="D542" s="6"/>
-      <c r="E542" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F542" s="23"/>
-      <c r="G542" s="24"/>
-      <c r="H542" s="25"/>
-      <c r="I542" s="26"/>
-      <c r="J542" s="26"/>
-      <c r="K542" s="26"/>
-      <c r="L542" s="26"/>
-      <c r="M542" s="26"/>
-    </row>
-    <row r="543" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A543"/>
-      <c r="B543" s="10"/>
-      <c r="C543" s="11"/>
-      <c r="D543" s="12"/>
-      <c r="E543" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F543" s="23"/>
-      <c r="G543" s="24"/>
-      <c r="H543" s="25"/>
-      <c r="I543" s="26"/>
-      <c r="J543" s="26"/>
-      <c r="K543" s="26"/>
-      <c r="L543" s="26"/>
-      <c r="M543" s="26"/>
     </row>
     <row r="544" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544"/>
       <c r="B544" s="10"/>
       <c r="C544" s="11"/>
-      <c r="D544" s="12"/>
+      <c r="D544" s="6"/>
       <c r="E544" s="9" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="F544" s="23"/>
       <c r="G544" s="24"/>
@@ -19204,9 +19261,9 @@
       <c r="A545"/>
       <c r="B545" s="10"/>
       <c r="C545" s="11"/>
-      <c r="D545" s="12"/>
-      <c r="E545" s="3" t="s">
-        <v>1046</v>
+      <c r="D545" s="6"/>
+      <c r="E545" s="9" t="s">
+        <v>1049</v>
       </c>
       <c r="F545" s="23"/>
       <c r="G545" s="24"/>
@@ -19221,9 +19278,9 @@
       <c r="A546"/>
       <c r="B546" s="10"/>
       <c r="C546" s="11"/>
-      <c r="D546" s="12"/>
-      <c r="E546" s="1" t="s">
-        <v>1045</v>
+      <c r="D546" s="6"/>
+      <c r="E546" s="3" t="s">
+        <v>1050</v>
       </c>
       <c r="F546" s="23"/>
       <c r="G546" s="24"/>
@@ -19234,1135 +19291,1125 @@
       <c r="L546" s="26"/>
       <c r="M546" s="26"/>
     </row>
-    <row r="547" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E547" s="1" t="s">
+    <row r="547" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A547"/>
+      <c r="B547" s="10"/>
+      <c r="C547" s="11"/>
+      <c r="D547" s="12"/>
+      <c r="E547" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F547" s="23"/>
+      <c r="G547" s="24"/>
+      <c r="H547" s="25"/>
+      <c r="I547" s="26"/>
+      <c r="J547" s="26"/>
+      <c r="K547" s="26"/>
+      <c r="L547" s="26"/>
+      <c r="M547" s="26"/>
+    </row>
+    <row r="548" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A548"/>
+      <c r="B548" s="10"/>
+      <c r="C548" s="11"/>
+      <c r="D548" s="12"/>
+      <c r="E548" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F548" s="23"/>
+      <c r="G548" s="24"/>
+      <c r="H548" s="25"/>
+      <c r="I548" s="26"/>
+      <c r="J548" s="26"/>
+      <c r="K548" s="26"/>
+      <c r="L548" s="26"/>
+      <c r="M548" s="26"/>
+    </row>
+    <row r="549" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A549"/>
+      <c r="B549" s="10"/>
+      <c r="C549" s="11"/>
+      <c r="D549" s="12"/>
+      <c r="E549" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F549" s="23"/>
+      <c r="G549" s="24"/>
+      <c r="H549" s="25"/>
+      <c r="I549" s="26"/>
+      <c r="J549" s="26"/>
+      <c r="K549" s="26"/>
+      <c r="L549" s="26"/>
+      <c r="M549" s="26"/>
+    </row>
+    <row r="550" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A550"/>
+      <c r="B550" s="10"/>
+      <c r="C550" s="11"/>
+      <c r="D550" s="12"/>
+      <c r="E550" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F550" s="23"/>
+      <c r="G550" s="24"/>
+      <c r="H550" s="25"/>
+      <c r="I550" s="26"/>
+      <c r="J550" s="26"/>
+      <c r="K550" s="26"/>
+      <c r="L550" s="26"/>
+      <c r="M550" s="26"/>
+    </row>
+    <row r="551" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E551" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E548" s="1" t="s">
+    <row r="552" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E552" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E549" s="1" t="s">
+    <row r="553" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E553" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B550" s="5" t="s">
+    <row r="554" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B554" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="E550" s="1"/>
-    </row>
-    <row r="551" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E551" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="552" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E552" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E553" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E554" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="E554" s="1"/>
     </row>
     <row r="555" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E555" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="556" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E556" s="2" t="s">
-        <v>727</v>
+        <v>317</v>
       </c>
     </row>
     <row r="557" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B557" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E557" s="2"/>
+      <c r="E557" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="558" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E558" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="559" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E559" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E560" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B561" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E561" s="2"/>
+    </row>
+    <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E562" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E563" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B560" s="5" t="s">
+    <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B564" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E560" s="2"/>
-    </row>
-    <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E561" s="1" t="s">
+      <c r="E564" s="2"/>
+    </row>
+    <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E565" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E562" s="1" t="s">
+    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E566" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E563" s="1" t="s">
+    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E567" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E564" s="2" t="s">
+    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E568" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E565" s="2" t="s">
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E569" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E566" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B568" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="E568" s="2"/>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D569" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="E569" s="2"/>
     </row>
     <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E570" s="2" t="s">
-        <v>706</v>
+        <v>326</v>
       </c>
     </row>
     <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E571" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B572" s="5" t="s">
-        <v>970</v>
+        <v>705</v>
       </c>
       <c r="E572" s="2"/>
     </row>
-    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E573" s="1" t="s">
-        <v>971</v>
-      </c>
+    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D573" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E573" s="2"/>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B574" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="E574" s="2"/>
+      <c r="E574" s="2" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E575" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B576" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="E576" s="2"/>
+    </row>
+    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E577" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B578" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E578" s="2"/>
+    </row>
+    <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E579" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E576" s="20" t="s">
+    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E580" s="20" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B577" s="5" t="s">
+    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B581" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E577" s="2"/>
-    </row>
-    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E579" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E581" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="E581" s="2"/>
     </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E582" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E583" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E584" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E585" s="1" t="s">
-        <v>335</v>
+        <v>733</v>
       </c>
     </row>
     <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E586" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E588" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E589" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E590" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E591" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E592" s="1" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E589" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E590" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E591" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E592" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E593" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E594" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E595" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E596" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E597" s="20" t="s">
-        <v>1019</v>
+      <c r="E597" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E598" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B599" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="E599" s="2"/>
+      <c r="E599" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E600" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E601" s="20" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E602" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B603" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E603" s="2"/>
+    </row>
+    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E604" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E605" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B601" s="5" t="s">
+    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B606" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E602" s="9" t="s">
+      <c r="E606" s="2"/>
+    </row>
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E607" s="9" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E603" s="9" t="s">
+    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E608" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="2" t="s">
+    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E609" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B605" s="5" t="s">
+    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B610" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E606" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E607" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E608" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B609" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="E609" s="2"/>
-    </row>
-    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E610" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="E610" s="2"/>
     </row>
     <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E611" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E612" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E613" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B614" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E614" s="2"/>
+    </row>
+    <row r="615" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E615" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E616" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E612" s="1" t="s">
+    <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E617" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E613" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E614" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="615" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B615" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="E615" s="2"/>
-    </row>
-    <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E616" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B617" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E617" s="2"/>
     </row>
     <row r="618" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E618" s="1" t="s">
-        <v>741</v>
+        <v>353</v>
       </c>
     </row>
     <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B619" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="E619" s="1"/>
+      <c r="E619" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="620" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E620" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="B620" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E620" s="2"/>
     </row>
     <row r="621" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B621" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="E621" s="1"/>
-    </row>
-    <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E622" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="E621" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B622" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E622" s="2"/>
     </row>
     <row r="623" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E623" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B624" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E624" s="1"/>
+    </row>
+    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E625" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B626" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E626" s="1"/>
+    </row>
+    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E627" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E628" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E624" s="2" t="s">
+    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E629" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="625" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E625" s="9" t="s">
+    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E630" s="9" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="626" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E626" s="1" t="s">
+    <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E631" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="627" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E627" s="2" t="s">
+    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E632" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="628" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E628" s="1" t="s">
+    <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E633" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="629" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E629" s="1" t="s">
+    <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E634" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="630" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E630" s="2" t="s">
+    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E635" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="631" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E631" s="2" t="s">
+    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E636" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="632" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E632" s="2" t="s">
+    <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E637" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="633" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E633" s="1" t="s">
+    <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E638" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="634" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E634" s="1" t="s">
+    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E639" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="635" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E635" s="1" t="s">
+    <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E640" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="636" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E636" s="2" t="s">
+    <row r="641" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E641" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="637" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E637" s="2" t="s">
+    <row r="642" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E642" s="2" t="s">
         <v>899</v>
-      </c>
-    </row>
-    <row r="638" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E638" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="639" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E639" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="640" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E640" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="641" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E641" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="642" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E642" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="643" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E643" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="644" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E644" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="645" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E645" s="1" t="s">
-        <v>907</v>
+        <v>369</v>
       </c>
     </row>
     <row r="646" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="2" t="s">
-        <v>374</v>
+      <c r="E646" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="647" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E647" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="648" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E648" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="649" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E649" s="1" t="s">
-        <v>903</v>
+        <v>373</v>
       </c>
     </row>
     <row r="650" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E650" s="1" t="s">
-        <v>377</v>
+        <v>907</v>
       </c>
     </row>
     <row r="651" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E651" s="1" t="s">
-        <v>378</v>
+      <c r="E651" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="652" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E652" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="653" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E653" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="654" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E654" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="655" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E655" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="656" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E656" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="657" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E657" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="658" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E658" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="659" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E659" s="1" t="s">
         <v>904</v>
-      </c>
-    </row>
-    <row r="655" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E655" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="656" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E656" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="657" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E657" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="658" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E658" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="659" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E659" s="2" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="660" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E660" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="661" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E661" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="662" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E662" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="663" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E663" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="664" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E664" s="2" t="s">
-        <v>389</v>
+        <v>900</v>
       </c>
     </row>
     <row r="665" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E665" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="666" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E666" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="667" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E667" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="668" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E668" s="9" t="s">
-        <v>908</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="668" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E668" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="669" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E669" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="670" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E670" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="671" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E671" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="672" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E672" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E673" s="2" t="s">
-        <v>906</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E673" s="9" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="674" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E674" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E675" s="3" t="s">
-        <v>952</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E675" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="676" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E676" s="2" t="s">
-        <v>901</v>
+        <v>395</v>
       </c>
     </row>
     <row r="677" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E677" s="2" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E678" s="2" t="s">
-        <v>397</v>
+        <v>906</v>
       </c>
     </row>
     <row r="679" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E679" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E680" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E680" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="681" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E681" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="682" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E682" s="2" t="s">
-        <v>400</v>
+        <v>897</v>
       </c>
     </row>
     <row r="683" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E683" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="684" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E684" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E685" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="686" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="2" t="s">
-        <v>404</v>
+        <v>905</v>
       </c>
     </row>
     <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E687" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="688" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E688" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="689" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E689" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="690" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E690" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="691" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E691" s="2" t="s">
-        <v>942</v>
+        <v>404</v>
       </c>
     </row>
     <row r="692" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E692" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="693" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B693" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E693" s="2"/>
+      <c r="E693" s="2" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="694" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E694" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="695" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E695" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="696" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E696" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="697" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E697" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="698" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B698" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E698" s="2"/>
+    </row>
+    <row r="699" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E699" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="700" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E700" s="2" t="s">
         <v>746</v>
-      </c>
-    </row>
-    <row r="696" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B696" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="E696" s="2"/>
-    </row>
-    <row r="697" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E697" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="698" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E698" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="699" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E699" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="700" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E700" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="701" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B701" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="E701" s="1"/>
+        <v>747</v>
+      </c>
+      <c r="E701" s="2"/>
     </row>
     <row r="702" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E702" s="2" t="s">
-        <v>750</v>
+      <c r="E702" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="703" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B703" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="E703" s="2"/>
+      <c r="E703" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="704" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E704" s="1" t="s">
-        <v>414</v>
+        <v>748</v>
       </c>
     </row>
     <row r="705" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E705" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B706" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E706" s="1"/>
+    </row>
+    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E707" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B708" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E708" s="2"/>
+    </row>
+    <row r="709" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E709" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E710" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E706" s="2" t="s">
+    <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E711" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B707" s="5" t="s">
+    <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B712" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E707" s="2"/>
-    </row>
-    <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E708" s="2" t="s">
+      <c r="E712" s="2"/>
+    </row>
+    <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E713" s="2" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="709" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A709"/>
-      <c r="B709" s="10"/>
-      <c r="C709" s="11"/>
-      <c r="D709" s="22"/>
-      <c r="E709" s="9" t="s">
+    <row r="714" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A714"/>
+      <c r="B714" s="10"/>
+      <c r="C714" s="11"/>
+      <c r="D714" s="22"/>
+      <c r="E714" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="F709" s="23"/>
-      <c r="G709" s="24"/>
-      <c r="H709" s="25"/>
-      <c r="I709" s="26"/>
-      <c r="J709" s="26"/>
-      <c r="K709" s="26"/>
-      <c r="L709" s="26"/>
-      <c r="M709" s="26"/>
-    </row>
-    <row r="710" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E710" s="2" t="s">
+      <c r="F714" s="23"/>
+      <c r="G714" s="24"/>
+      <c r="H714" s="25"/>
+      <c r="I714" s="26"/>
+      <c r="J714" s="26"/>
+      <c r="K714" s="26"/>
+      <c r="L714" s="26"/>
+      <c r="M714" s="26"/>
+    </row>
+    <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E715" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E711" s="9" t="s">
+    <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E716" s="9" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E712" s="1" t="s">
+    <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E717" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E713" s="1" t="s">
+    <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E718" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E714" s="1" t="s">
+    <row r="719" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E719" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E715" s="9" t="s">
+    <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E720" s="9" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E716" s="1" t="s">
+    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E721" s="1" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E717" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E718" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="719" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E719" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E720" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E721" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="722" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E722" s="2" t="s">
-        <v>424</v>
+        <v>943</v>
       </c>
     </row>
     <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E723" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E724" s="2" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
     </row>
     <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E725" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E726" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E727" s="9" t="s">
-        <v>1035</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E726" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E727" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="728" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E728" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E729" s="3" t="s">
-        <v>953</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="730" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E730" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B731" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E731" s="2"/>
-    </row>
-    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E732" s="2" t="s">
-        <v>921</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E731" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E732" s="9" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="733" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E733" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E734" s="2" t="s">
-        <v>429</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E734" s="3" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E735" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B736" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E736" s="2"/>
+    </row>
+    <row r="737" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E737" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="738" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E738" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E739" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E740" s="2" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D736" s="9"/>
-      <c r="E736" s="9" t="s">
+    <row r="741" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D741" s="9"/>
+      <c r="E741" s="9" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D737" s="9"/>
-      <c r="E737" s="20" t="s">
+    <row r="742" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D742" s="9"/>
+      <c r="E742" s="20" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D738" s="9"/>
-      <c r="E738" s="20" t="s">
+    <row r="743" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D743" s="9"/>
+      <c r="E743" s="20" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D739" s="9"/>
-      <c r="E739" s="9" t="s">
+    <row r="744" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D744" s="9"/>
+      <c r="E744" s="9" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D740" s="9"/>
-      <c r="E740" s="20" t="s">
+    <row r="745" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D745" s="9"/>
+      <c r="E745" s="20" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D741" s="9"/>
-      <c r="E741" s="20" t="s">
+    <row r="746" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D746" s="9"/>
+      <c r="E746" s="20" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D742" s="9"/>
-      <c r="E742" s="9" t="s">
+    <row r="747" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D747" s="9"/>
+      <c r="E747" s="9" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D743" s="9"/>
-      <c r="E743" s="9" t="s">
+    <row r="748" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D748" s="9"/>
+      <c r="E748" s="9" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D744" s="9"/>
-      <c r="E744" s="20" t="s">
+    <row r="749" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D749" s="9"/>
+      <c r="E749" s="20" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D745" s="9"/>
-      <c r="E745" s="9" t="s">
+    <row r="750" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D750" s="9"/>
+      <c r="E750" s="9" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="746" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A746" s="17"/>
-      <c r="B746" s="18"/>
-      <c r="C746" s="18"/>
-      <c r="D746" s="19"/>
-      <c r="E746" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="F746" s="16"/>
-      <c r="G746" s="16"/>
-      <c r="H746" s="16"/>
-      <c r="I746" s="17"/>
-      <c r="J746" s="17"/>
-      <c r="K746" s="17"/>
-      <c r="L746" s="17"/>
-      <c r="M746" s="17"/>
-    </row>
-    <row r="747" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A747" s="17"/>
-      <c r="B747" s="18"/>
-      <c r="C747" s="18"/>
-      <c r="D747" s="19"/>
-      <c r="E747" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G747" s="16"/>
-      <c r="H747" s="16"/>
-      <c r="I747" s="17"/>
-      <c r="J747" s="17"/>
-      <c r="K747" s="17"/>
-      <c r="L747" s="17"/>
-      <c r="M747" s="17"/>
-    </row>
-    <row r="748" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A748" s="17"/>
-      <c r="B748" s="18"/>
-      <c r="C748" s="18"/>
-      <c r="D748" s="19"/>
-      <c r="E748" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G748" s="16"/>
-      <c r="H748" s="16"/>
-      <c r="I748" s="17"/>
-      <c r="J748" s="17"/>
-      <c r="K748" s="17"/>
-      <c r="L748" s="17"/>
-      <c r="M748" s="17"/>
-    </row>
-    <row r="749" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A749" s="17"/>
-      <c r="B749" s="18"/>
-      <c r="C749" s="18"/>
-      <c r="D749" s="19"/>
-      <c r="E749" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F749" s="16"/>
-      <c r="G749" s="16"/>
-      <c r="H749" s="16"/>
-      <c r="I749" s="17"/>
-      <c r="J749" s="17"/>
-      <c r="K749" s="17"/>
-      <c r="L749" s="17"/>
-      <c r="M749" s="17"/>
-    </row>
-    <row r="750" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A750" s="17"/>
-      <c r="B750" s="18"/>
-      <c r="C750" s="18"/>
-      <c r="D750" s="19"/>
-      <c r="E750" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F750" s="16"/>
-      <c r="G750" s="16"/>
-      <c r="H750" s="16"/>
-      <c r="I750" s="17"/>
-      <c r="J750" s="17"/>
-      <c r="K750" s="17"/>
-      <c r="L750" s="17"/>
-      <c r="M750" s="17"/>
     </row>
     <row r="751" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A751" s="17"/>
       <c r="B751" s="18"/>
       <c r="C751" s="18"/>
       <c r="D751" s="19"/>
-      <c r="E751" s="20" t="s">
-        <v>992</v>
+      <c r="E751" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="F751" s="16"/>
       <c r="G751" s="16"/>
@@ -20373,686 +20420,685 @@
       <c r="L751" s="17"/>
       <c r="M751" s="17"/>
     </row>
-    <row r="752" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D752" s="9"/>
+    <row r="752" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A752" s="17"/>
+      <c r="B752" s="18"/>
+      <c r="C752" s="18"/>
+      <c r="D752" s="19"/>
       <c r="E752" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G752" s="16"/>
+      <c r="H752" s="16"/>
+      <c r="I752" s="17"/>
+      <c r="J752" s="17"/>
+      <c r="K752" s="17"/>
+      <c r="L752" s="17"/>
+      <c r="M752" s="17"/>
+    </row>
+    <row r="753" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A753" s="17"/>
+      <c r="B753" s="18"/>
+      <c r="C753" s="18"/>
+      <c r="D753" s="19"/>
+      <c r="E753" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G753" s="16"/>
+      <c r="H753" s="16"/>
+      <c r="I753" s="17"/>
+      <c r="J753" s="17"/>
+      <c r="K753" s="17"/>
+      <c r="L753" s="17"/>
+      <c r="M753" s="17"/>
+    </row>
+    <row r="754" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A754" s="17"/>
+      <c r="B754" s="18"/>
+      <c r="C754" s="18"/>
+      <c r="D754" s="19"/>
+      <c r="E754" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F754" s="16"/>
+      <c r="G754" s="16"/>
+      <c r="H754" s="16"/>
+      <c r="I754" s="17"/>
+      <c r="J754" s="17"/>
+      <c r="K754" s="17"/>
+      <c r="L754" s="17"/>
+      <c r="M754" s="17"/>
+    </row>
+    <row r="755" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A755" s="17"/>
+      <c r="B755" s="18"/>
+      <c r="C755" s="18"/>
+      <c r="D755" s="19"/>
+      <c r="E755" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F755" s="16"/>
+      <c r="G755" s="16"/>
+      <c r="H755" s="16"/>
+      <c r="I755" s="17"/>
+      <c r="J755" s="17"/>
+      <c r="K755" s="17"/>
+      <c r="L755" s="17"/>
+      <c r="M755" s="17"/>
+    </row>
+    <row r="756" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A756" s="17"/>
+      <c r="B756" s="18"/>
+      <c r="C756" s="18"/>
+      <c r="D756" s="19"/>
+      <c r="E756" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="F756" s="16"/>
+      <c r="G756" s="16"/>
+      <c r="H756" s="16"/>
+      <c r="I756" s="17"/>
+      <c r="J756" s="17"/>
+      <c r="K756" s="17"/>
+      <c r="L756" s="17"/>
+      <c r="M756" s="17"/>
+    </row>
+    <row r="757" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D757" s="9"/>
+      <c r="E757" s="20" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="753" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D753" s="9"/>
-      <c r="E753" s="9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="754" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D754" s="9"/>
-      <c r="E754" s="9" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="755" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E755" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="756" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E756" s="9" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="757" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E757" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="758" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D758" s="9"/>
       <c r="E758" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D759" s="9"/>
+      <c r="E759" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E760" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E761" s="9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E762" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D763" s="9"/>
+      <c r="E763" s="9" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="759" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E759" s="2" t="s">
+    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E764" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="760" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E760" s="3" t="s">
+    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E765" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="761" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E761" s="2" t="s">
+    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E766" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="762" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B762" s="5" t="s">
+    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B767" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E762" s="2"/>
-    </row>
-    <row r="763" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C763" s="7" t="s">
+      <c r="E767" s="2"/>
+    </row>
+    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C768" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="E763" s="2"/>
-    </row>
-    <row r="764" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C764" s="7" t="s">
+      <c r="E768" s="2"/>
+    </row>
+    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C769" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="E764" s="2"/>
-    </row>
-    <row r="765" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E765" s="2" t="s">
+      <c r="E769" s="2"/>
+    </row>
+    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E770" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="766" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B766" s="5" t="s">
+    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B771" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="E766" s="2"/>
-    </row>
-    <row r="767" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C767" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="E767" s="2"/>
-    </row>
-    <row r="768" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C768" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E769" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B770" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E770" s="2"/>
-    </row>
-    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C771" s="7" t="s">
-        <v>761</v>
       </c>
       <c r="E771" s="2"/>
     </row>
     <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C772" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="E772" s="2"/>
+    </row>
+    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C773" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E773" s="2"/>
+    </row>
+    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E774" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B775" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="E775" s="2"/>
+    </row>
+    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C776" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E776" s="2"/>
+    </row>
+    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C777" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="E772" s="2"/>
-    </row>
-    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E773" s="1" t="s">
+      <c r="E777" s="2"/>
+    </row>
+    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E778" s="1" t="s">
         <v>960</v>
-      </c>
-    </row>
-    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E774" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E775" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E776" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E777" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E778" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E779" s="1" t="s">
-        <v>437</v>
+        <v>961</v>
       </c>
     </row>
     <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E780" s="2" t="s">
-        <v>438</v>
+      <c r="E780" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E781" s="2" t="s">
-        <v>439</v>
+      <c r="E781" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E782" s="2" t="s">
-        <v>440</v>
+      <c r="E782" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E783" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E784" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="785" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E785" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="786" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E786" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="787" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E787" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="788" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E788" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E784" s="2" t="s">
+    <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E789" s="2" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="785" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E785" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="786" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E786" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="787" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E787" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="788" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E788" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="790" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E790" s="1" t="s">
-        <v>965</v>
+        <v>443</v>
       </c>
     </row>
     <row r="791" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E791" s="1" t="s">
-        <v>445</v>
+        <v>962</v>
       </c>
     </row>
     <row r="792" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E792" s="1" t="s">
-        <v>446</v>
+        <v>963</v>
       </c>
     </row>
     <row r="793" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E793" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="794" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E794" s="2" t="s">
-        <v>448</v>
+      <c r="E794" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="795" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E795" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="796" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E796" s="2" t="s">
-        <v>449</v>
+      <c r="E796" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="797" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E797" s="2" t="s">
-        <v>450</v>
+      <c r="E797" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="798" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E798" s="2" t="s">
-        <v>451</v>
+      <c r="E798" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="799" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E799" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="800" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E800" s="2" t="s">
-        <v>453</v>
+      <c r="E800" s="1" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="801" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E801" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="802" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E802" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="803" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E803" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="804" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E804" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="805" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E805" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="806" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E806" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="807" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A807" s="17"/>
-      <c r="B807" s="18"/>
-      <c r="C807" s="18"/>
-      <c r="D807" s="19"/>
-      <c r="E807" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="F807" s="16"/>
-      <c r="G807" s="16"/>
-      <c r="H807" s="16"/>
-      <c r="I807" s="17"/>
-      <c r="J807" s="17"/>
-      <c r="K807" s="17"/>
-      <c r="L807" s="17"/>
-      <c r="M807" s="17"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E807" s="2" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="808" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E808" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="809" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E809" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="810" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E810" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="811" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E811" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="812" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E812" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A812" s="17"/>
+      <c r="B812" s="18"/>
+      <c r="C812" s="18"/>
+      <c r="D812" s="19"/>
+      <c r="E812" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="F812" s="16"/>
+      <c r="G812" s="16"/>
+      <c r="H812" s="16"/>
+      <c r="I812" s="17"/>
+      <c r="J812" s="17"/>
+      <c r="K812" s="17"/>
+      <c r="L812" s="17"/>
+      <c r="M812" s="17"/>
     </row>
     <row r="813" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E813" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="814" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E814" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="815" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E815" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="816" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E816" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E817" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E818" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E819" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B820" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="E820" s="2"/>
-    </row>
-    <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D821" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="E821" s="2"/>
+      <c r="E820" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E821" s="2" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E822" s="4" t="s">
-        <v>472</v>
+      <c r="E822" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E823" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E824" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B825" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="E825" s="2"/>
+    </row>
+    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D826" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E826" s="2"/>
+    </row>
+    <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E827" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E828" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B824" s="5" t="s">
+    <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B829" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E824" s="2"/>
-    </row>
-    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E825" s="1" t="s">
+      <c r="E829" s="2"/>
+    </row>
+    <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E830" s="1" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B826" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E826" s="1"/>
-    </row>
-    <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E827" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E828" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E829" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E830" s="9" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B831" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E831" s="2"/>
-    </row>
-    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C832" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E832" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="E831" s="1"/>
+    </row>
+    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E832" s="2" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="2" t="s">
-        <v>879</v>
+      <c r="E833" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E834" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E835" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B836" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E836" s="2"/>
+    </row>
+    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C837" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E837" s="2"/>
+    </row>
+    <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E838" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E839" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B835" s="5" t="s">
+    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B840" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E835" s="2"/>
-    </row>
-    <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E836" s="1" t="s">
+      <c r="E840" s="2"/>
+    </row>
+    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E841" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E837" s="2" t="s">
+    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E842" s="2" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E838" s="9" t="s">
+    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E843" s="9" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B839" s="5" t="s">
+    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B844" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E839" s="2"/>
-    </row>
-    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E840" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B841" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="E841" s="1"/>
-    </row>
-    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E842" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B843" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E843" s="1"/>
-    </row>
-    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E844" s="1" t="s">
-        <v>478</v>
-      </c>
+      <c r="E844" s="2"/>
     </row>
     <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E845" s="1" t="s">
-        <v>883</v>
+        <v>774</v>
       </c>
     </row>
     <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E846" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="B846" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E846" s="1"/>
     </row>
     <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E847" s="2" t="s">
-        <v>480</v>
+      <c r="E847" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B848" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E848" s="1"/>
+    </row>
+    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E849" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E850" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E851" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E852" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B853" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="E848" s="2"/>
-    </row>
-    <row r="849" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E849" s="2" t="s">
+      <c r="E853" s="2"/>
+    </row>
+    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E854" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B850" s="5" t="s">
+    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B855" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="E850" s="2"/>
-    </row>
-    <row r="851" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E851" s="2" t="s">
+      <c r="E855" s="2"/>
+    </row>
+    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E856" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E852" s="3" t="s">
+    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E857" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E853" s="9" t="s">
+    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E858" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E854" s="20" t="s">
+    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E859" s="20" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E855" s="9" t="s">
+    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E860" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B856" s="5" t="s">
+    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B861" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="E856" s="1"/>
-    </row>
-    <row r="857" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="1" t="s">
+      <c r="E861" s="1"/>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E858" s="1" t="s">
+    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E863" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E859" s="9" t="s">
+    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E864" s="9" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E860" s="1" t="s">
+    <row r="865" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E865" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E861" s="2" t="s">
+    <row r="866" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E866" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="862" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A862" s="17"/>
-      <c r="B862" s="18"/>
-      <c r="C862" s="18"/>
-      <c r="D862" s="19"/>
-      <c r="E862" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="G862" s="16"/>
-      <c r="H862" s="16"/>
-      <c r="I862" s="17"/>
-      <c r="J862" s="17"/>
-      <c r="K862" s="17"/>
-      <c r="L862" s="17"/>
-      <c r="M862" s="17"/>
-    </row>
-    <row r="863" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A863" s="17"/>
-      <c r="B863" s="18"/>
-      <c r="C863" s="18"/>
-      <c r="D863" s="19"/>
-      <c r="E863" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G863" s="16"/>
-      <c r="H863" s="16"/>
-      <c r="I863" s="17"/>
-      <c r="J863" s="17"/>
-      <c r="K863" s="17"/>
-      <c r="L863" s="17"/>
-      <c r="M863" s="17"/>
-    </row>
-    <row r="864" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A864" s="17"/>
-      <c r="B864" s="18"/>
-      <c r="C864" s="18"/>
-      <c r="D864" s="19"/>
-      <c r="E864" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="F864" s="16"/>
-      <c r="G864" s="16"/>
-      <c r="H864" s="16"/>
-      <c r="I864" s="17"/>
-      <c r="J864" s="17"/>
-      <c r="K864" s="17"/>
-      <c r="L864" s="17"/>
-      <c r="M864" s="17"/>
-    </row>
-    <row r="865" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A865" s="17"/>
-      <c r="B865" s="18"/>
-      <c r="C865" s="18"/>
-      <c r="D865" s="19"/>
-      <c r="E865" s="20" t="s">
-        <v>999</v>
-      </c>
-      <c r="F865" s="16"/>
-      <c r="G865" s="16"/>
-      <c r="H865" s="16"/>
-      <c r="I865" s="17"/>
-      <c r="J865" s="17"/>
-      <c r="K865" s="17"/>
-      <c r="L865" s="17"/>
-      <c r="M865" s="17"/>
-    </row>
-    <row r="866" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A866" s="17"/>
-      <c r="B866" s="18"/>
-      <c r="C866" s="18"/>
-      <c r="D866" s="19"/>
-      <c r="E866" s="9" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F866" s="16"/>
-      <c r="G866" s="16"/>
-      <c r="H866" s="16"/>
-      <c r="I866" s="17"/>
-      <c r="J866" s="17"/>
-      <c r="K866" s="17"/>
-      <c r="L866" s="17"/>
-      <c r="M866" s="17"/>
     </row>
     <row r="867" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A867" s="17"/>
       <c r="B867" s="18"/>
       <c r="C867" s="18"/>
       <c r="D867" s="19"/>
-      <c r="E867" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F867" s="16"/>
+      <c r="E867" s="9" t="s">
+        <v>997</v>
+      </c>
       <c r="G867" s="16"/>
       <c r="H867" s="16"/>
       <c r="I867" s="17"/>
@@ -21067,9 +21113,8 @@
       <c r="C868" s="18"/>
       <c r="D868" s="19"/>
       <c r="E868" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F868" s="16"/>
+        <v>486</v>
+      </c>
       <c r="G868" s="16"/>
       <c r="H868" s="16"/>
       <c r="I868" s="17"/>
@@ -21078,1023 +21123,1108 @@
       <c r="L868" s="17"/>
       <c r="M868" s="17"/>
     </row>
-    <row r="869" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E869" s="1" t="s">
+    <row r="869" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A869" s="17"/>
+      <c r="B869" s="18"/>
+      <c r="C869" s="18"/>
+      <c r="D869" s="19"/>
+      <c r="E869" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="F869" s="16"/>
+      <c r="G869" s="16"/>
+      <c r="H869" s="16"/>
+      <c r="I869" s="17"/>
+      <c r="J869" s="17"/>
+      <c r="K869" s="17"/>
+      <c r="L869" s="17"/>
+      <c r="M869" s="17"/>
+    </row>
+    <row r="870" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A870" s="17"/>
+      <c r="B870" s="18"/>
+      <c r="C870" s="18"/>
+      <c r="D870" s="19"/>
+      <c r="E870" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="F870" s="16"/>
+      <c r="G870" s="16"/>
+      <c r="H870" s="16"/>
+      <c r="I870" s="17"/>
+      <c r="J870" s="17"/>
+      <c r="K870" s="17"/>
+      <c r="L870" s="17"/>
+      <c r="M870" s="17"/>
+    </row>
+    <row r="871" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A871" s="17"/>
+      <c r="B871" s="18"/>
+      <c r="C871" s="18"/>
+      <c r="D871" s="19"/>
+      <c r="E871" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F871" s="16"/>
+      <c r="G871" s="16"/>
+      <c r="H871" s="16"/>
+      <c r="I871" s="17"/>
+      <c r="J871" s="17"/>
+      <c r="K871" s="17"/>
+      <c r="L871" s="17"/>
+      <c r="M871" s="17"/>
+    </row>
+    <row r="872" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A872" s="17"/>
+      <c r="B872" s="18"/>
+      <c r="C872" s="18"/>
+      <c r="D872" s="19"/>
+      <c r="E872" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F872" s="16"/>
+      <c r="G872" s="16"/>
+      <c r="H872" s="16"/>
+      <c r="I872" s="17"/>
+      <c r="J872" s="17"/>
+      <c r="K872" s="17"/>
+      <c r="L872" s="17"/>
+      <c r="M872" s="17"/>
+    </row>
+    <row r="873" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A873" s="17"/>
+      <c r="B873" s="18"/>
+      <c r="C873" s="18"/>
+      <c r="D873" s="19"/>
+      <c r="E873" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F873" s="16"/>
+      <c r="G873" s="16"/>
+      <c r="H873" s="16"/>
+      <c r="I873" s="17"/>
+      <c r="J873" s="17"/>
+      <c r="K873" s="17"/>
+      <c r="L873" s="17"/>
+      <c r="M873" s="17"/>
+    </row>
+    <row r="874" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E874" s="1" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="870" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E870" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="871" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E871" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="872" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E872" s="9" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="873" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E873" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="874" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E874" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="875" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E875" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="876" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E876" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="877" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E877" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E877" s="9" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="878" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E878" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="879" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E879" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="880" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E880" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E881" s="2" t="s">
-        <v>499</v>
+        <v>780</v>
       </c>
     </row>
     <row r="882" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E882" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E883" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E884" s="9" t="s">
-        <v>1002</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E884" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="885" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B885" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E885" s="2"/>
+      <c r="E885" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D886" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E886" s="2"/>
+      <c r="E886" s="2" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="887" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E887" s="1" t="s">
-        <v>502</v>
+      <c r="E887" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="888" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E888" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E889" s="9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B890" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E890" s="2"/>
+    </row>
+    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D891" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E891" s="2"/>
+    </row>
+    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E892" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E893" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B889" s="5" t="s">
+    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B894" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="E889" s="2"/>
-    </row>
-    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E890" s="1" t="s">
+      <c r="E894" s="2"/>
+    </row>
+    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E895" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E891" s="2" t="s">
+    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E896" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E892" s="2" t="s">
+    <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E897" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B893" s="5" t="s">
+    <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B898" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E893" s="2"/>
-    </row>
-    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E894" s="2" t="s">
+      <c r="E898" s="2"/>
+    </row>
+    <row r="899" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E899" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E895" s="2" t="s">
+    <row r="900" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E900" s="2" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B896" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E896" s="2"/>
-    </row>
-    <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E897" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E898" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="899" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B899" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E899" s="1"/>
-    </row>
-    <row r="900" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E900" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="901" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B901" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E901" s="2"/>
+    </row>
+    <row r="902" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E902" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="903" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E903" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="904" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B904" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E904" s="1"/>
+    </row>
+    <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E905" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B906" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="E901" s="1"/>
-    </row>
-    <row r="902" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E902" s="2" t="s">
+      <c r="E906" s="1"/>
+    </row>
+    <row r="907" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E907" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="903" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B903" s="5" t="s">
+    <row r="908" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B908" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E903" s="2"/>
-    </row>
-    <row r="904" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C904" s="7" t="s">
+      <c r="E908" s="2"/>
+    </row>
+    <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C909" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="E904" s="2"/>
-    </row>
-    <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C905" s="7" t="s">
+      <c r="E909" s="2"/>
+    </row>
+    <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C910" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="E905" s="2"/>
-    </row>
-    <row r="906" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C906" s="7" t="s">
+      <c r="E910" s="2"/>
+    </row>
+    <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C911" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E906" s="2"/>
-    </row>
-    <row r="907" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E907" s="4" t="s">
+      <c r="E911" s="2"/>
+    </row>
+    <row r="912" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E912" s="4" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="908" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E908" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E909" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E910" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E911" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="912" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E912" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="913" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E913" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="914" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E914" s="2" t="s">
-        <v>516</v>
+      <c r="E914" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="915" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E915" s="1" t="s">
-        <v>517</v>
+      <c r="E915" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="916" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E916" s="1" t="s">
-        <v>518</v>
+      <c r="E916" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="917" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E917" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="918" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E918" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="919" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E919" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="920" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E920" s="2" t="s">
-        <v>522</v>
+      <c r="E920" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="921" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E921" s="2" t="s">
-        <v>523</v>
+      <c r="E921" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="922" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E922" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="923" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E923" s="1" t="s">
-        <v>525</v>
+      <c r="E923" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="924" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E924" s="1" t="s">
-        <v>526</v>
+      <c r="E924" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="925" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E925" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="926" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E926" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="927" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E927" s="1" t="s">
-        <v>529</v>
+      <c r="E927" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="928" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E928" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="929" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E929" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="930" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E930" s="1" t="s">
-        <v>532</v>
+      <c r="E930" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="931" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E931" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="932" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E932" s="2" t="s">
-        <v>534</v>
+      <c r="E932" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="933" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E933" s="2" t="s">
-        <v>535</v>
+      <c r="E933" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="934" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E934" s="2" t="s">
-        <v>536</v>
+      <c r="E934" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="935" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E935" s="2" t="s">
-        <v>537</v>
+      <c r="E935" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="936" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E936" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="937" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E937" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="938" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E938" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="939" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E939" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="940" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E940" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="941" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E941" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="942" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E942" s="1" t="s">
-        <v>544</v>
+      <c r="E942" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="943" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E943" s="2" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
     </row>
     <row r="944" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E944" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="945" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E945" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="946" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E946" s="1" t="s">
-        <v>547</v>
+      <c r="E946" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="947" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E947" s="2" t="s">
-        <v>548</v>
+      <c r="E947" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="948" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E948" s="2" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
     </row>
     <row r="949" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E949" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="950" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E950" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="951" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E951" s="2" t="s">
-        <v>552</v>
+      <c r="E951" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="952" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E952" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="953" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E953" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="954" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E954" s="2" t="s">
-        <v>887</v>
+        <v>550</v>
       </c>
     </row>
     <row r="955" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E955" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="956" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E956" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="957" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E957" s="2" t="s">
-        <v>976</v>
+        <v>553</v>
       </c>
     </row>
     <row r="958" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E958" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="959" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E959" s="2" t="s">
-        <v>558</v>
+        <v>887</v>
       </c>
     </row>
     <row r="960" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E960" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="961" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E961" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="962" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E962" s="1" t="s">
-        <v>561</v>
+      <c r="E962" s="2" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="963" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E963" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="964" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E964" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="965" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E965" s="2" t="s">
-        <v>975</v>
+        <v>559</v>
       </c>
     </row>
     <row r="966" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B966" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E966" s="2"/>
+      <c r="E966" s="2" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="967" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E967" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="968" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E968" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="969" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E969" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="970" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E970" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="971" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B971" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="E971" s="2"/>
+    </row>
+    <row r="972" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E972" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="968" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E968" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="969" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E969" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="970" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E970" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="971" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E971" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="972" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B972" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="E972" s="1"/>
     </row>
     <row r="973" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E973" s="1" t="s">
-        <v>564</v>
+        <v>959</v>
       </c>
     </row>
     <row r="974" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E974" s="1" t="s">
-        <v>565</v>
+        <v>955</v>
       </c>
     </row>
     <row r="975" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E975" s="1" t="s">
-        <v>784</v>
+        <v>956</v>
       </c>
     </row>
     <row r="976" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E976" s="2" t="s">
-        <v>566</v>
+      <c r="E976" s="1" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="977" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E977" s="2" t="s">
-        <v>567</v>
-      </c>
+      <c r="B977" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E977" s="1"/>
     </row>
     <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B978" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="E978" s="2"/>
+      <c r="E978" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E979" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E980" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E981" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E982" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B983" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E983" s="2"/>
+    </row>
+    <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E984" s="1" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B980" s="5" t="s">
+    <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B985" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E980" s="1"/>
-    </row>
-    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E981" s="1" t="s">
+      <c r="E985" s="1"/>
+    </row>
+    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E986" s="1" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B982" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E982" s="1"/>
-    </row>
-    <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E983" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B984" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="E984" s="2"/>
-    </row>
-    <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D985" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E985" s="2"/>
-    </row>
-    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E986" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B987" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E987" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="E987" s="1"/>
     </row>
     <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E988" s="2" t="s">
-        <v>569</v>
+        <v>788</v>
       </c>
     </row>
     <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E989" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E990" s="1" t="s">
-        <v>571</v>
-      </c>
+      <c r="B989" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E989" s="2"/>
+    </row>
+    <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D990" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E990" s="2"/>
     </row>
     <row r="991" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E991" s="1" t="s">
-        <v>572</v>
+      <c r="E991" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E992" s="2" t="s">
-        <v>573</v>
-      </c>
+      <c r="B992" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E992" s="2"/>
     </row>
     <row r="993" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E993" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="994" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E994" s="2" t="s">
-        <v>575</v>
+      <c r="E994" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="995" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E995" s="2" t="s">
-        <v>576</v>
+      <c r="E995" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="996" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E996" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="997" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B997" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E997" s="1"/>
+      <c r="E997" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="998" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E998" s="2" t="s">
-        <v>797</v>
+        <v>574</v>
       </c>
     </row>
     <row r="999" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B999" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E999" s="2"/>
+      <c r="E999" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="1000" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1000" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="1001" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1001" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="E1001" s="1"/>
+      <c r="E1000" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1001" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="1002" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1002" s="6" t="s">
-        <v>794</v>
+      <c r="B1002" s="5" t="s">
+        <v>796</v>
       </c>
       <c r="E1002" s="1"/>
     </row>
     <row r="1003" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1003" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1004" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E1004" s="2"/>
+    </row>
+    <row r="1005" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1005" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1006" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E1006" s="1"/>
+    </row>
+    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D1007" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1007" s="1"/>
+    </row>
+    <row r="1008" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1008" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="1004" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1004" s="1" t="s">
+    <row r="1009" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1009" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="1005" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1005" s="2" t="s">
+    <row r="1010" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1010" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="1006" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1006" s="2" t="s">
+    <row r="1011" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1011" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1007" s="2" t="s">
+    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1012" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="1008" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1008" s="5" t="s">
+    <row r="1013" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1013" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E1008" s="2"/>
-    </row>
-    <row r="1009" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1009" s="2" t="s">
+      <c r="E1013" s="2"/>
+    </row>
+    <row r="1014" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1014" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="1010" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1010" s="5" t="s">
+    <row r="1015" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1015" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="E1010" s="2"/>
-    </row>
-    <row r="1011" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1011" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1012" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="1013" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1013" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="1014" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1014" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="E1014" s="2"/>
-    </row>
-    <row r="1015" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1015" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="E1015" s="2"/>
     </row>
     <row r="1016" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1016" s="1" t="s">
-        <v>649</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1017" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1017" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1018" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1019" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1019" s="2"/>
+    </row>
+    <row r="1020" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D1020" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1020" s="2"/>
+    </row>
+    <row r="1021" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1021" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1022" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1018" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1018" s="1" t="s">
+    <row r="1023" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1023" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="1019" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1019" s="9" t="s">
+    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1024" s="9" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="1020" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1020" s="5" t="s">
+    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1025" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="E1020" s="1"/>
-    </row>
-    <row r="1021" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1021" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="1022" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1022" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E1022" s="2"/>
-    </row>
-    <row r="1023" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1023" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1024" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1025" s="2" t="s">
-        <v>585</v>
-      </c>
+      <c r="E1025" s="1"/>
     </row>
     <row r="1026" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1026" s="2" t="s">
-        <v>586</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1027" s="5" t="s">
-        <v>803</v>
+        <v>647</v>
       </c>
       <c r="E1027" s="2"/>
     </row>
     <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1028" s="4" t="s">
-        <v>587</v>
+      <c r="E1028" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1029" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1030" s="21" t="s">
-        <v>1017</v>
+      <c r="E1029" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1030" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="1031" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1031" s="2" t="s">
-        <v>804</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1032" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="B1032" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1032" s="2"/>
     </row>
     <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1033" s="1" t="s">
-        <v>590</v>
+      <c r="E1033" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1034" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1035" s="1" t="s">
-        <v>592</v>
+      <c r="E1034" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1035" s="21" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1036" s="2" t="s">
-        <v>593</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1037" s="2" t="s">
-        <v>594</v>
+      <c r="E1037" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1038" s="2" t="s">
-        <v>595</v>
+      <c r="E1038" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1039" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1040" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1040" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1041" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1042"/>
-      <c r="B1042" s="10"/>
-      <c r="C1042" s="11"/>
-      <c r="D1042" s="6"/>
-      <c r="E1042" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F1042" s="23"/>
-      <c r="G1042" s="24"/>
-      <c r="H1042" s="25"/>
-      <c r="I1042" s="26"/>
-      <c r="J1042" s="26"/>
-      <c r="K1042" s="26"/>
-      <c r="L1042" s="26"/>
-      <c r="M1042" s="26"/>
-    </row>
-    <row r="1043" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1043"/>
-      <c r="B1043" s="10"/>
-      <c r="C1043" s="11"/>
-      <c r="D1043" s="12"/>
-      <c r="E1043" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F1043" s="23"/>
-      <c r="G1043" s="24"/>
-      <c r="H1043" s="25"/>
-      <c r="I1043" s="26"/>
-      <c r="J1043" s="26"/>
-      <c r="K1043" s="26"/>
-      <c r="L1043" s="26"/>
-      <c r="M1043" s="26"/>
-      <c r="N1043" s="12"/>
+      <c r="E1040" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1041" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1042" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1043" s="2" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="1044" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1044" s="2" t="s">
-        <v>968</v>
+        <v>596</v>
       </c>
     </row>
     <row r="1045" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1045" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1046" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E1046" s="9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1047"/>
+      <c r="B1047" s="10"/>
+      <c r="C1047" s="11"/>
+      <c r="D1047" s="6"/>
+      <c r="E1047" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F1047" s="23"/>
+      <c r="G1047" s="24"/>
+      <c r="H1047" s="25"/>
+      <c r="I1047" s="26"/>
+      <c r="J1047" s="26"/>
+      <c r="K1047" s="26"/>
+      <c r="L1047" s="26"/>
+      <c r="M1047" s="26"/>
+    </row>
+    <row r="1048" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1048"/>
+      <c r="B1048" s="10"/>
+      <c r="C1048" s="11"/>
+      <c r="D1048" s="12"/>
+      <c r="E1048" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1048" s="23"/>
+      <c r="G1048" s="24"/>
+      <c r="H1048" s="25"/>
+      <c r="I1048" s="26"/>
+      <c r="J1048" s="26"/>
+      <c r="K1048" s="26"/>
+      <c r="L1048" s="26"/>
+      <c r="M1048" s="26"/>
+      <c r="N1048" s="12"/>
+    </row>
+    <row r="1049" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1049" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1050" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1051" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1047" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1047" s="5" t="s">
+    <row r="1052" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1052" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E1047" s="2"/>
-    </row>
-    <row r="1048" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1048" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1049" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="E1049" s="1"/>
-    </row>
-    <row r="1050" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1050" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1051" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E1051" s="1"/>
-    </row>
-    <row r="1052" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1052" s="2" t="s">
-        <v>599</v>
-      </c>
+      <c r="E1052" s="2"/>
     </row>
     <row r="1053" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1053" s="1" t="s">
-        <v>600</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1054" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1054" s="2" t="s">
-        <v>601</v>
-      </c>
+      <c r="B1054" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1054" s="1"/>
     </row>
     <row r="1055" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1055" s="2" t="s">
-        <v>602</v>
+      <c r="E1055" s="1" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="1056" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1056" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1056" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="E1056" s="1"/>
     </row>
     <row r="1057" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1057" s="2" t="s">
-        <v>810</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1058" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1058" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1059" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1059" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="E1059" s="1"/>
+      <c r="E1059" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="1060" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1060" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1061" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1061" s="2"/>
+    </row>
+    <row r="1062" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1062" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1063" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1064" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E1064" s="1"/>
+    </row>
+    <row r="1065" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1065" s="2" t="s">
         <v>812</v>
       </c>
     </row>

--- a/data/taxon genera files/F genera reduced.xlsx
+++ b/data/taxon genera files/F genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1066">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been ascribed.&gt;</t>
   </si>
@@ -4910,9 +4910,6 @@
     </r>
   </si>
   <si>
-    <t>Foveolatisporites lenestratus</t>
-  </si>
-  <si>
     <r>
       <t>Foveolatisporites minutus</t>
     </r>
@@ -8742,9 +8739,6 @@
   </si>
   <si>
     <t>FUNGOCHITINA</t>
-  </si>
-  <si>
-    <t>FUSTICHITINA</t>
   </si>
   <si>
     <r>
@@ -15769,6 +15763,110 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Valensi) Sarjeant &amp; Stancliffe 1994</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Falsia mamorata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Boitsova, Verbitskaya &amp; Gromova 1979</t>
+    </r>
+  </si>
+  <si>
+    <t>FALSIA</t>
+  </si>
+  <si>
+    <r>
+      <t>Foveolatisporites lenestratus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUSTICHITINA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Achab 1980</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Foveasporis tenuifovearis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Simoncsics 1964</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Farabeipollis deccanensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sonkusare, Samant &amp; Mohabey 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frasnacritetrus taugourdeaui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Saxena &amp; Sarkar 1994</t>
     </r>
   </si>
 </sst>
@@ -15934,7 +16032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -15999,6 +16097,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16309,10 +16410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1065"/>
+  <dimension ref="A1:N1071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="Q274" sqref="Q274"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="N744" sqref="N744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16326,12 +16427,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16351,7 +16452,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16361,13 +16462,13 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16377,18 +16478,18 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -16398,7 +16499,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="16" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13"/>
@@ -16411,24 +16512,24 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -16439,7 +16540,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -16449,7 +16550,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -16500,7 +16601,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -16537,7 +16638,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -16550,12 +16651,12 @@
     </row>
     <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E31" s="16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E32" s="9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -16565,7 +16666,7 @@
     </row>
     <row r="34" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E34" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -16585,7 +16686,7 @@
     </row>
     <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16595,7 +16696,7 @@
     </row>
     <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16639,588 +16740,588 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E55" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E56" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E57" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E59" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D63" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E64" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E61" s="2" t="s">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E66" s="28" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E64" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E66" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E67" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E69" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E73" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E76" s="2" t="s">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E77" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E79" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E80" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
-        <v>38</v>
+        <v>822</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E82" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B82" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E83" s="2" t="s">
-        <v>40</v>
+      <c r="E83" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E84" s="2" t="s">
-        <v>41</v>
+      <c r="E84" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E86" s="2" t="s">
-        <v>43</v>
+      <c r="E86" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E92" s="2" t="s">
-        <v>826</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E93" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B94" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D95" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="96" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E96" s="4" t="s">
-        <v>50</v>
+      <c r="E96" s="2" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E97" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D99" s="6" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E99" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="s">
-        <v>52</v>
+      <c r="E100" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>657</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E105" s="1" t="s">
-        <v>1029</v>
+      <c r="E105" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E106" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B106" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E107" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E108" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="B108" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E109" s="1" t="s">
-        <v>58</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E110" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E111" s="2" t="s">
-        <v>683</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E112" s="2" t="s">
-        <v>1030</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E113" s="2" t="s">
-        <v>60</v>
+      <c r="E113" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E114" s="2" t="s">
-        <v>61</v>
+      <c r="E114" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>1031</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E121" s="2" t="s">
-        <v>974</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B123" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="124" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E124" s="1" t="s">
-        <v>68</v>
+      <c r="E124" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E125" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B126" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="E126" s="2"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E127" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B127" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E128" s="1" t="s">
-        <v>868</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E129" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E130" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E129" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B130" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E131" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E132" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E134" s="2" t="s">
-        <v>74</v>
+      <c r="E134" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E136" s="3" t="s">
-        <v>893</v>
+      <c r="E135" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E137" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E138" s="1" t="s">
-        <v>686</v>
+      <c r="E138" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E140" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E140" s="3" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B141" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="s">
-        <v>691</v>
+      <c r="E142" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="E143" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="E143" s="1"/>
     </row>
     <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E144" s="2" t="s">
-        <v>693</v>
+      <c r="E144" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="E145" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="E145" s="1"/>
     </row>
     <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E146" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="s">
+    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B148" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E149" s="1" t="s">
+    <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B150" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E152" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E153" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B154" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="1" t="s">
-        <v>872</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B156" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B158" s="5" t="s">
         <v>869</v>
       </c>
@@ -17232,2106 +17333,2048 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E160" s="1" t="s">
+      <c r="B160" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B161" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E162" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E164" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E165" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B165" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E166" s="2" t="s">
-        <v>81</v>
+      <c r="E166" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E167" s="2"/>
+        <v>825</v>
+      </c>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E168" s="1" t="s">
-        <v>663</v>
+      <c r="E168" s="2" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E169" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E170" s="1" t="s">
-        <v>83</v>
+      <c r="E170" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E171" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B171" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E171" s="2"/>
     </row>
     <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E172" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E173" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E173" s="1" t="s">
+    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E174" s="2" t="s">
+    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E176" s="4" t="s">
+    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E180" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="177" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="2" t="s">
+    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E181" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E178" s="1" t="s">
+    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E179" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E180" s="1" t="s">
+    <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E181" s="2" t="s">
+    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E185" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E182" s="1" t="s">
+    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="183" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E183" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E184" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E185" s="2" t="s">
+    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E189" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E186" s="2" t="s">
+    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E187" s="1" t="s">
+    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E188" s="1" t="s">
+    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="189" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E189" s="1" t="s">
+    <row r="193" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="190" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E190" s="1" t="s">
+    <row r="194" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E191" s="1" t="s">
+    <row r="195" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E192" s="2" t="s">
+    <row r="196" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E196" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E193" s="2" t="s">
+    <row r="197" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E197" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E194" s="2" t="s">
+    <row r="198" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E198" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E195" s="2" t="s">
+    <row r="199" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E199" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E196" s="2" t="s">
+    <row r="200" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E200" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E197" s="2" t="s">
+    <row r="201" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E201" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E198" s="2" t="s">
+    <row r="202" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E202" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E199" s="2" t="s">
+    <row r="203" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E203" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E200" s="2" t="s">
+    <row r="204" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E204" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E201" s="2" t="s">
+    <row r="205" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E205" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E202" s="2" t="s">
+    <row r="206" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E206" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E203" s="2" t="s">
+    <row r="207" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E207" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E204" s="1" t="s">
+    <row r="208" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E205" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E206" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B207" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E208" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E209" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E210" s="2" t="s">
-        <v>118</v>
+      <c r="E210" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E211" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B211" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E212" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E213" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E214" s="2" t="s">
-        <v>830</v>
+        <v>118</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E216" s="2" t="s">
-        <v>123</v>
+      <c r="E216" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E217" s="2" t="s">
-        <v>124</v>
+      <c r="E217" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E218" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219" s="17"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="17"/>
-      <c r="K219" s="17"/>
-      <c r="L219" s="17"/>
-      <c r="M219" s="17"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E219" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="220" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E221" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B222" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E223" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="E222" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="17"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+      <c r="M223" s="17"/>
     </row>
     <row r="224" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E224" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E225" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E227" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E228" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E225" s="1" t="s">
+    <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E229" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="226" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E226" s="2" t="s">
+    <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E230" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E227" s="2" t="s">
+    <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E231" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E228" s="1" t="s">
+    <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E232" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="229" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E229" s="2" t="s">
+    <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E233" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="230" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E230" s="1" t="s">
+    <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E234" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E231" s="1" t="s">
+    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E235" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E232" s="4" t="s">
+    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E236" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="233" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E233" s="1" t="s">
+    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E234" s="1" t="s">
+    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E238" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E235" s="2" t="s">
+    <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E239" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E236" s="2" t="s">
+    <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E240" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="237" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E237" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="238" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E238" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="239" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E239" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="240" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E240" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E241" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E243" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E244" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E245" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E246" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E247" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E250" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B252" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="E252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E253" s="2" t="s">
-        <v>833</v>
+        <v>154</v>
       </c>
     </row>
     <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E254" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E255" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E257" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E258" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="5" t="s">
+    <row r="259" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E260" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B261" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C262" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E263" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E266" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E256" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B257" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C258" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E259" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E260" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E261" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E262" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B263" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E264" s="2" t="s">
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E265" s="27" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E266" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E267" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E268" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E269" s="1" t="s">
-        <v>164</v>
+    <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E269" s="27" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
-        <v>873</v>
+        <v>161</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E271" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E272" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E271" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E273" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E274" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E275" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E276" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E277" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E274" s="3" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E275" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E276" s="2" t="s">
+    <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E278" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E279" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E280" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E277" s="1" t="s">
+    <row r="281" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E278" s="2" t="s">
+    <row r="282" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E279" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E280" s="2" t="s">
+    <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E283" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E284" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E281" s="2" t="s">
+    <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E285" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E282" s="2" t="s">
+    <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E286" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E283" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E284" s="2" t="s">
+    <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E287" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E288" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="285" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E285" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E286" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E287" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B288" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="E288" s="2"/>
     </row>
     <row r="289" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E289" s="2" t="s">
-        <v>839</v>
+        <v>173</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B290" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="291" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="2" t="s">
-        <v>841</v>
+        <v>175</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E293" s="1" t="s">
-        <v>176</v>
+      <c r="E293" s="2" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E294" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="B294" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E294" s="2"/>
     </row>
     <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E295" s="1" t="s">
-        <v>177</v>
+      <c r="E295" s="2" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E296" s="1"/>
+        <v>840</v>
+      </c>
+      <c r="E296" s="2"/>
     </row>
     <row r="297" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E297" s="2" t="s">
-        <v>178</v>
+      <c r="E297" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="2" t="s">
-        <v>179</v>
+        <v>841</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E299" s="1" t="s">
-        <v>845</v>
+        <v>177</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E300" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B300" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E300" s="1"/>
     </row>
     <row r="301" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E301" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E302" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E303" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E304" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E305" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B302" s="5" t="s">
+    <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B306" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E307" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B308" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E303" s="2" t="s">
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E309" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B304" s="5" t="s">
+    <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B310" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E311" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E312" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E305" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B306" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E306" s="1"/>
-    </row>
-    <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E307" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E308" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B309" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E310" s="1" t="s">
+    </row>
+    <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B313" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E311" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B312" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E313" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B314" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="E314" s="2"/>
     </row>
     <row r="315" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E315" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E316" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="B316" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E316" s="2"/>
     </row>
     <row r="317" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E317" s="2" t="s">
-        <v>187</v>
+        <v>623</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E318" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="B318" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E318" s="2"/>
     </row>
     <row r="319" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B319" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="E319" s="2"/>
+      <c r="E319" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="320" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E320" s="2" t="s">
-        <v>855</v>
+        <v>186</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B321" s="5" t="s">
+      <c r="E321" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E322" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B323" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E324" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B325" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D326" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D322" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E323" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B324" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E324" s="1"/>
-    </row>
-    <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E325" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B326" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E326" s="1"/>
+      <c r="E326" s="2"/>
     </row>
     <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
-        <v>892</v>
+        <v>855</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B328" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E329" s="1" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E330" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="B330" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E330" s="1"/>
     </row>
     <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E331" s="1" t="s">
-        <v>189</v>
+        <v>890</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B332" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E333" s="4" t="s">
-        <v>190</v>
+      <c r="E333" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E334" s="4" t="s">
-        <v>667</v>
+      <c r="E334" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E335" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E336" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="B336" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E336" s="1"/>
     </row>
     <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E337" s="1" t="s">
-        <v>193</v>
+      <c r="E337" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E338" s="1" t="s">
-        <v>194</v>
+      <c r="E338" s="4" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E341" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E344" s="3" t="s">
-        <v>950</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E344" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E345" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E347" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E348" s="1" t="s">
-        <v>630</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E348" s="3" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E349" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E350" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E351" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E352" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E354" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E355" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E352" s="2" t="s">
+    <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E356" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E353" s="2" t="s">
+    <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E354" s="2" t="s">
+    <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E358" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E355" s="2" t="s">
+    <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E359" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E356" s="2" t="s">
+    <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E360" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E357" s="1" t="s">
+    <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E361" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E358" s="2" t="s">
+    <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E362" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E359" s="2" t="s">
+    <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E363" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E360" s="9" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E361" s="2" t="s">
+    <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E364" s="9" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E365" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E362" s="2" t="s">
+    <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E366" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E363" s="2" t="s">
+    <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E367" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E364" s="1" t="s">
+    <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E368" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E365" s="2" t="s">
+    <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E369" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E366" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E367" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B368" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="E368" s="2"/>
-    </row>
-    <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D369" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E371" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E372" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="B372" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E372" s="2"/>
     </row>
     <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E373" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="D373" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E373" s="2"/>
     </row>
     <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E374" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B375" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E375" s="2"/>
+      <c r="E375" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E376" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E377" s="3" t="s">
-        <v>890</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E377" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E378" s="1" t="s">
+      <c r="E378" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B379" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E380" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E381" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E382" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E379" s="3" t="s">
+    <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E383" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E384" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E385" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E386" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E380" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E381" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E382" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E383" s="2" t="s">
+    <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E387" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E384" s="2" t="s">
+    <row r="388" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E388" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E385" s="2" t="s">
+    <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E389" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E386" s="2" t="s">
+    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E390" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E387" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="388" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E388" s="1" t="s">
+    <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E391" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E392" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E389" s="1" t="s">
+    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E393" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E390" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E391" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E392" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E393" s="3" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="394" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E394" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E395" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E396" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E397" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E398" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E395" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E396" s="1" t="s">
+    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E399" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E400" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E397" s="1" t="s">
+    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E401" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E398" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E399" s="2" t="s">
+    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E402" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E403" s="2" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E400" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E401" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E402" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E403" s="3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="404" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E404" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E405" s="3" t="s">
-        <v>932</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E405" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="406" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E406" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E407" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E407" s="3" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E408" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E409" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E409" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E410" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="411" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E411" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="412" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E412" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="413" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E413" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="414" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E414" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E415" s="3" t="s">
-        <v>933</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E415" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="416" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E416" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E417" s="3" t="s">
-        <v>934</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E417" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E419" s="2" t="s">
-        <v>255</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E419" s="3" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E421" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E422" s="3" t="s">
-        <v>935</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E421" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E422" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E423" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E424" s="3" t="s">
-        <v>936</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E424" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E425" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E426" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E426" s="3" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E427" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E428" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E429" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E429" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="430" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E430" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E431" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E432" s="3" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="433" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E433" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="434" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E434" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E433" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E434" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E435" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="436" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E436" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E437" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="438" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E438" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E436" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E437" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E438" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E439" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E440" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E441" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E442" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E443" s="2" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="440" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E440" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E441" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B442" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E443" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E444" s="1" t="s">
-        <v>863</v>
+        <v>269</v>
       </c>
     </row>
     <row r="445" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E445" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="446" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E446" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="B446" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E446" s="2"/>
     </row>
     <row r="447" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E447" s="1" t="s">
-        <v>274</v>
+      <c r="E447" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="448" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E448" s="1" t="s">
-        <v>275</v>
+        <v>861</v>
       </c>
     </row>
     <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E449" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E450" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E451" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E452" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E453" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E450" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E451" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E452" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B453" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E454" s="2" t="s">
-        <v>865</v>
+        <v>277</v>
       </c>
     </row>
     <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B455" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E455" s="2"/>
+      <c r="E455" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="456" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E456" s="1" t="s">
+      <c r="E456" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B457" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E458" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B459" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E460" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="457" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A457"/>
-      <c r="B457" s="10"/>
-      <c r="C457" s="11"/>
-      <c r="D457" s="12"/>
-      <c r="E457" s="9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F457" s="23"/>
-      <c r="G457" s="24"/>
-      <c r="H457" s="25"/>
-      <c r="I457" s="26"/>
-      <c r="J457" s="26"/>
-      <c r="K457" s="26"/>
-      <c r="L457" s="26"/>
-      <c r="M457" s="26"/>
-    </row>
-    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E458" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E459" s="1" t="s">
+    <row r="461" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A461"/>
+      <c r="B461" s="10"/>
+      <c r="C461" s="11"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F461" s="23"/>
+      <c r="G461" s="24"/>
+      <c r="H461" s="25"/>
+      <c r="I461" s="26"/>
+      <c r="J461" s="26"/>
+      <c r="K461" s="26"/>
+      <c r="L461" s="26"/>
+      <c r="M461" s="26"/>
+    </row>
+    <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E462" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E463" s="1" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E460" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E461" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E462" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E463" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="464" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E464" s="2" t="s">
-        <v>709</v>
+        <v>282</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B465" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E465" s="2"/>
+      <c r="E465" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="466" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E466" s="2" t="s">
-        <v>711</v>
+        <v>284</v>
       </c>
     </row>
     <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B467" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="E467" s="2"/>
+      <c r="E467" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E468" s="2" t="s">
-        <v>875</v>
+        <v>707</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B469" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E469" s="2"/>
     </row>
     <row r="470" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E470" s="1" t="s">
-        <v>666</v>
+      <c r="E470" s="2" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B471" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E471" s="1"/>
+        <v>874</v>
+      </c>
+      <c r="E471" s="2"/>
     </row>
     <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E472" s="1" t="s">
-        <v>286</v>
+      <c r="E472" s="2" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E473" s="1" t="s">
-        <v>878</v>
-      </c>
+      <c r="B473" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E473" s="2"/>
     </row>
     <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E474" s="2" t="s">
-        <v>287</v>
+      <c r="E474" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B475" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="E475" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="E475" s="1"/>
     </row>
     <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E476" s="2" t="s">
-        <v>288</v>
+      <c r="E476" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E477" s="2" t="s">
-        <v>714</v>
+      <c r="E477" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E478" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B479" s="5" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="E479" s="2"/>
     </row>
     <row r="480" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E480" s="2" t="s">
-        <v>678</v>
+        <v>288</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B481" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E481" s="2"/>
+      <c r="E481" s="2" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="482" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E483" s="2" t="s">
-        <v>920</v>
-      </c>
+      <c r="B483" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E484" s="20" t="s">
-        <v>1032</v>
+      <c r="E484" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E485" s="2" t="s">
-        <v>919</v>
-      </c>
+      <c r="B485" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E485" s="2"/>
     </row>
     <row r="486" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E486" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E487" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E488" s="20" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E489" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E490" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="487" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A487"/>
-      <c r="B487" s="10"/>
-      <c r="C487" s="11"/>
-      <c r="D487" s="12"/>
-      <c r="E487" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F487" s="23"/>
-      <c r="G487" s="24"/>
-      <c r="H487" s="25"/>
-      <c r="I487" s="26"/>
-      <c r="J487" s="26"/>
-      <c r="K487" s="26"/>
-      <c r="L487" s="26"/>
-      <c r="M487" s="26"/>
-    </row>
-    <row r="488" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E488" s="1" t="s">
+    <row r="491" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A491"/>
+      <c r="B491" s="10"/>
+      <c r="C491" s="11"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F491" s="23"/>
+      <c r="G491" s="24"/>
+      <c r="H491" s="25"/>
+      <c r="I491" s="26"/>
+      <c r="J491" s="26"/>
+      <c r="K491" s="26"/>
+      <c r="L491" s="26"/>
+      <c r="M491" s="26"/>
+    </row>
+    <row r="492" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E492" s="1" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E489" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E490" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E491" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E492" s="20" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="493" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E493" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E494" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E495" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E496" s="20" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E497" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E494" s="2" t="s">
+    <row r="498" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E498" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E495" s="2" t="s">
+    <row r="499" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E499" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E496" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="497" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E497" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="498" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E498" s="2" t="s">
+    <row r="500" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E500" s="2" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="499" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E499" s="2" t="s">
+    <row r="501" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E501" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E502" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="503" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E503" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="500" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E500" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="501" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E501" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="502" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E502" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="503" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E503" s="2" t="s">
+    <row r="504" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E504" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E505" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E506" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="504" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E504" s="2" t="s">
+    <row r="507" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E507" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="508" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E508" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="505" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E505" s="2" t="s">
+    <row r="509" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E509" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E506" s="2" t="s">
+    <row r="510" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E510" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E507" s="2" t="s">
+    <row r="511" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E511" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="508" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E508" s="2" t="s">
+    <row r="512" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E512" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E509" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B510" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E511" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B512" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="E512" s="2"/>
     </row>
     <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E513" s="2" t="s">
-        <v>719</v>
+        <v>303</v>
       </c>
     </row>
     <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B514" s="5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E514" s="2"/>
     </row>
     <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E515" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B516" s="5" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="E516" s="2"/>
     </row>
     <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E517" s="2" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B518" s="5" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="E518" s="2"/>
     </row>
-    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C519" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E519" s="2"/>
+    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E519" s="2" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D520" s="6" t="s">
-        <v>635</v>
+      <c r="B520" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="E520" s="2"/>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E521" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E522" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B523" s="5" t="s">
-        <v>610</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B522" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E522" s="2"/>
+    </row>
+    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C523" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="E523" s="2"/>
     </row>
-    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E524" s="2" t="s">
-        <v>304</v>
-      </c>
+    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D524" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E524" s="2"/>
     </row>
     <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E525" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E526" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B527" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E527" s="2"/>
+    </row>
+    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E528" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E529" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B526" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E526" s="2"/>
-    </row>
-    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E527" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B528" s="5" t="s">
+    <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B530" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E530" s="2"/>
+    </row>
+    <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E531" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B532" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E532" s="2"/>
+    </row>
+    <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E533" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E534" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E535" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E536" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E537" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E538" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E539" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E540" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E541" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E542" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E543" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E544" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E545" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B546" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E528" s="2"/>
-    </row>
-    <row r="529" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E529" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="530" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E530" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="531" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E531" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="532" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E532" s="1" t="s">
+      <c r="E546" s="2"/>
+    </row>
+    <row r="547" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C547" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E547" s="2"/>
+    </row>
+    <row r="548" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E548" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="533" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E533" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="534" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E534" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="535" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E535" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="536" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E536" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="537" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E537" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="538" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E538" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="539" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E539" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E540" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="541" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B541" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="E541" s="2"/>
-    </row>
-    <row r="542" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C542" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E542" s="2"/>
-    </row>
-    <row r="543" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E543" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="544" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A544"/>
-      <c r="B544" s="10"/>
-      <c r="C544" s="11"/>
-      <c r="D544" s="6"/>
-      <c r="E544" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F544" s="23"/>
-      <c r="G544" s="24"/>
-      <c r="H544" s="25"/>
-      <c r="I544" s="26"/>
-      <c r="J544" s="26"/>
-      <c r="K544" s="26"/>
-      <c r="L544" s="26"/>
-      <c r="M544" s="26"/>
-    </row>
-    <row r="545" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A545"/>
-      <c r="B545" s="10"/>
-      <c r="C545" s="11"/>
-      <c r="D545" s="6"/>
-      <c r="E545" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F545" s="23"/>
-      <c r="G545" s="24"/>
-      <c r="H545" s="25"/>
-      <c r="I545" s="26"/>
-      <c r="J545" s="26"/>
-      <c r="K545" s="26"/>
-      <c r="L545" s="26"/>
-      <c r="M545" s="26"/>
-    </row>
-    <row r="546" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A546"/>
-      <c r="B546" s="10"/>
-      <c r="C546" s="11"/>
-      <c r="D546" s="6"/>
-      <c r="E546" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F546" s="23"/>
-      <c r="G546" s="24"/>
-      <c r="H546" s="25"/>
-      <c r="I546" s="26"/>
-      <c r="J546" s="26"/>
-      <c r="K546" s="26"/>
-      <c r="L546" s="26"/>
-      <c r="M546" s="26"/>
-    </row>
-    <row r="547" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A547"/>
-      <c r="B547" s="10"/>
-      <c r="C547" s="11"/>
-      <c r="D547" s="12"/>
-      <c r="E547" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F547" s="23"/>
-      <c r="G547" s="24"/>
-      <c r="H547" s="25"/>
-      <c r="I547" s="26"/>
-      <c r="J547" s="26"/>
-      <c r="K547" s="26"/>
-      <c r="L547" s="26"/>
-      <c r="M547" s="26"/>
-    </row>
-    <row r="548" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A548"/>
-      <c r="B548" s="10"/>
-      <c r="C548" s="11"/>
-      <c r="D548" s="12"/>
-      <c r="E548" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F548" s="23"/>
-      <c r="G548" s="24"/>
-      <c r="H548" s="25"/>
-      <c r="I548" s="26"/>
-      <c r="J548" s="26"/>
-      <c r="K548" s="26"/>
-      <c r="L548" s="26"/>
-      <c r="M548" s="26"/>
     </row>
     <row r="549" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A549"/>
       <c r="B549" s="10"/>
       <c r="C549" s="11"/>
-      <c r="D549" s="12"/>
-      <c r="E549" s="3" t="s">
-        <v>1046</v>
+      <c r="D549" s="6"/>
+      <c r="E549" s="9" t="s">
+        <v>1040</v>
       </c>
       <c r="F549" s="23"/>
       <c r="G549" s="24"/>
@@ -19346,9 +19389,9 @@
       <c r="A550"/>
       <c r="B550" s="10"/>
       <c r="C550" s="11"/>
-      <c r="D550" s="12"/>
-      <c r="E550" s="1" t="s">
-        <v>1045</v>
+      <c r="D550" s="6"/>
+      <c r="E550" s="9" t="s">
+        <v>1047</v>
       </c>
       <c r="F550" s="23"/>
       <c r="G550" s="24"/>
@@ -19359,1140 +19402,1142 @@
       <c r="L550" s="26"/>
       <c r="M550" s="26"/>
     </row>
-    <row r="551" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E551" s="1" t="s">
+    <row r="551" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A551"/>
+      <c r="B551" s="10"/>
+      <c r="C551" s="11"/>
+      <c r="D551" s="6"/>
+      <c r="E551" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F551" s="23"/>
+      <c r="G551" s="24"/>
+      <c r="H551" s="25"/>
+      <c r="I551" s="26"/>
+      <c r="J551" s="26"/>
+      <c r="K551" s="26"/>
+      <c r="L551" s="26"/>
+      <c r="M551" s="26"/>
+    </row>
+    <row r="552" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A552"/>
+      <c r="B552" s="10"/>
+      <c r="C552" s="11"/>
+      <c r="D552" s="12"/>
+      <c r="E552" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F552" s="23"/>
+      <c r="G552" s="24"/>
+      <c r="H552" s="25"/>
+      <c r="I552" s="26"/>
+      <c r="J552" s="26"/>
+      <c r="K552" s="26"/>
+      <c r="L552" s="26"/>
+      <c r="M552" s="26"/>
+    </row>
+    <row r="553" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A553"/>
+      <c r="B553" s="10"/>
+      <c r="C553" s="11"/>
+      <c r="D553" s="12"/>
+      <c r="E553" s="9" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E552" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E553" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B554" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="E554" s="1"/>
-    </row>
-    <row r="555" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E555" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="F553" s="23"/>
+      <c r="G553" s="24"/>
+      <c r="H553" s="25"/>
+      <c r="I553" s="26"/>
+      <c r="J553" s="26"/>
+      <c r="K553" s="26"/>
+      <c r="L553" s="26"/>
+      <c r="M553" s="26"/>
+    </row>
+    <row r="554" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A554"/>
+      <c r="B554" s="10"/>
+      <c r="C554" s="11"/>
+      <c r="D554" s="12"/>
+      <c r="E554" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F554" s="23"/>
+      <c r="G554" s="24"/>
+      <c r="H554" s="25"/>
+      <c r="I554" s="26"/>
+      <c r="J554" s="26"/>
+      <c r="K554" s="26"/>
+      <c r="L554" s="26"/>
+      <c r="M554" s="26"/>
+    </row>
+    <row r="555" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A555"/>
+      <c r="B555" s="10"/>
+      <c r="C555" s="11"/>
+      <c r="D555" s="12"/>
+      <c r="E555" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F555" s="23"/>
+      <c r="G555" s="24"/>
+      <c r="H555" s="25"/>
+      <c r="I555" s="26"/>
+      <c r="J555" s="26"/>
+      <c r="K555" s="26"/>
+      <c r="L555" s="26"/>
+      <c r="M555" s="26"/>
     </row>
     <row r="556" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E556" s="2" t="s">
-        <v>317</v>
+      <c r="E556" s="1" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="557" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E557" s="2" t="s">
-        <v>318</v>
+      <c r="E557" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="558" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E558" s="2" t="s">
-        <v>319</v>
+      <c r="E558" s="1" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="559" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E559" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="B559" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E559" s="1"/>
     </row>
     <row r="560" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E560" s="2" t="s">
-        <v>727</v>
+        <v>316</v>
       </c>
     </row>
     <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B561" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E561" s="2"/>
+      <c r="E561" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E562" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E563" s="2" t="s">
-        <v>704</v>
+        <v>319</v>
       </c>
     </row>
     <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B564" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="E564" s="2"/>
+      <c r="E564" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E565" s="1" t="s">
-        <v>322</v>
+      <c r="E565" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E566" s="1" t="s">
-        <v>730</v>
-      </c>
+      <c r="B566" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="E566" s="2"/>
     </row>
     <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="1" t="s">
-        <v>323</v>
+      <c r="E567" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E568" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B569" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E569" s="2"/>
+    </row>
+    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E570" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E571" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E572" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E573" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E569" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E570" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E571" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B572" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="E572" s="2"/>
-    </row>
-    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D573" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="E573" s="2"/>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E574" s="2" t="s">
-        <v>706</v>
+        <v>325</v>
       </c>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E575" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B576" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="E576" s="2"/>
+      <c r="E576" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E577" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B578" s="5" t="s">
-        <v>731</v>
+      <c r="B577" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E577" s="2"/>
+    </row>
+    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D578" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="E578" s="2"/>
     </row>
     <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E579" s="2" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
     </row>
     <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="20" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E580" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B581" s="5" t="s">
-        <v>734</v>
+        <v>968</v>
       </c>
       <c r="E581" s="2"/>
     </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E582" s="1" t="s">
-        <v>329</v>
+        <v>969</v>
       </c>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E583" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="B583" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E583" s="2"/>
     </row>
     <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E584" s="1" t="s">
-        <v>331</v>
+      <c r="E584" s="2" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E585" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E586" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="E585" s="20" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B586" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E586" s="2"/>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E588" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E589" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E590" s="1" t="s">
-        <v>336</v>
+        <v>731</v>
       </c>
     </row>
     <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E592" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E593" s="2" t="s">
-        <v>339</v>
+      <c r="E593" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E594" s="2" t="s">
-        <v>340</v>
+      <c r="E594" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E595" s="2" t="s">
-        <v>341</v>
+      <c r="E595" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E596" s="2" t="s">
-        <v>342</v>
+      <c r="E596" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E597" s="2" t="s">
-        <v>343</v>
+      <c r="E597" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E598" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E599" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E600" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E601" s="20" t="s">
-        <v>1019</v>
+      <c r="E601" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E602" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B603" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E604" s="3" t="s">
-        <v>1057</v>
+      <c r="E603" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E604" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E605" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E606" s="20" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E607" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B608" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E608" s="2"/>
+    </row>
+    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E609" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E610" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B611" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E611" s="2"/>
+    </row>
+    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E612" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E613" s="9" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E614" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B606" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="E606" s="2"/>
-    </row>
-    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E607" s="9" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E608" s="9" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E609" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B610" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E611" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E612" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E613" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B614" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="E614" s="2"/>
-    </row>
     <row r="615" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E615" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="B615" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E615" s="2"/>
     </row>
     <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E616" s="1" t="s">
-        <v>740</v>
+        <v>347</v>
       </c>
     </row>
     <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E617" s="1" t="s">
-        <v>352</v>
+      <c r="E617" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="618" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E618" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E619" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="E618" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B619" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E619" s="2"/>
     </row>
     <row r="620" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B620" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="E620" s="2"/>
+      <c r="E620" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="621" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E621" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B622" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E622" s="2"/>
+      <c r="E621" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E622" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="623" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E623" s="1" t="s">
-        <v>741</v>
+        <v>352</v>
       </c>
     </row>
     <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B624" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="E624" s="1"/>
+      <c r="E624" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E625" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="B625" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E625" s="2"/>
     </row>
     <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B626" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="E626" s="1"/>
-    </row>
-    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E627" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="E626" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B627" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E627" s="2"/>
     </row>
     <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E628" s="1" t="s">
-        <v>356</v>
+        <v>739</v>
       </c>
     </row>
     <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E629" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E630" s="9" t="s">
-        <v>1020</v>
+      <c r="B629" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E629" s="1"/>
+    </row>
+    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E630" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E631" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="B631" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E631" s="1"/>
     </row>
     <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E632" s="2" t="s">
-        <v>640</v>
+        <v>354</v>
       </c>
     </row>
     <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E633" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E634" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E635" s="2" t="s">
-        <v>361</v>
+      <c r="E634" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E635" s="9" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E636" s="2" t="s">
-        <v>362</v>
+      <c r="E636" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E637" s="2" t="s">
-        <v>363</v>
+        <v>638</v>
       </c>
     </row>
     <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E638" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E639" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E640" s="1" t="s">
-        <v>898</v>
+      <c r="E640" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="641" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E641" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="642" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E642" s="2" t="s">
-        <v>899</v>
+        <v>362</v>
       </c>
     </row>
     <row r="643" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E643" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="644" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E644" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="645" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E645" s="1" t="s">
-        <v>369</v>
+        <v>896</v>
       </c>
     </row>
     <row r="646" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="1" t="s">
-        <v>370</v>
+      <c r="E646" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="647" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E647" s="1" t="s">
-        <v>371</v>
+      <c r="E647" s="2" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="648" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E648" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="649" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E649" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="650" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E650" s="1" t="s">
-        <v>907</v>
+        <v>368</v>
       </c>
     </row>
     <row r="651" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E651" s="2" t="s">
-        <v>374</v>
+      <c r="E651" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="652" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E652" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="653" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E653" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="654" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E654" s="1" t="s">
-        <v>903</v>
+        <v>372</v>
       </c>
     </row>
     <row r="655" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E655" s="1" t="s">
-        <v>377</v>
+        <v>905</v>
       </c>
     </row>
     <row r="656" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E656" s="1" t="s">
-        <v>378</v>
+      <c r="E656" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="657" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E657" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="658" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E658" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="659" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E659" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="660" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E660" s="2" t="s">
-        <v>381</v>
+      <c r="E660" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="661" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E661" s="2" t="s">
-        <v>382</v>
+      <c r="E661" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="662" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E662" s="2" t="s">
-        <v>383</v>
+      <c r="E662" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="663" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E663" s="2" t="s">
-        <v>384</v>
+      <c r="E663" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="664" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E664" s="2" t="s">
-        <v>900</v>
+      <c r="E664" s="1" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="665" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E665" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="666" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E666" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="667" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E667" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="668" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E668" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="669" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E669" s="2" t="s">
-        <v>389</v>
+        <v>898</v>
       </c>
     </row>
     <row r="670" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E670" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="671" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E671" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="672" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E672" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E673" s="9" t="s">
-        <v>908</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E673" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="674" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E674" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E675" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="676" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E676" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="677" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E677" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E678" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E678" s="9" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="679" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E679" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E680" s="3" t="s">
-        <v>952</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E680" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="681" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E681" s="2" t="s">
-        <v>901</v>
+        <v>394</v>
       </c>
     </row>
     <row r="682" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E682" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="683" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E683" s="2" t="s">
-        <v>397</v>
+        <v>904</v>
       </c>
     </row>
     <row r="684" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E684" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E685" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E685" s="3" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="686" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E687" s="2" t="s">
-        <v>400</v>
+        <v>895</v>
       </c>
     </row>
     <row r="688" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E688" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="689" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E689" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="690" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E690" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="691" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E691" s="2" t="s">
-        <v>404</v>
+        <v>903</v>
       </c>
     </row>
     <row r="692" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E692" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="693" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E693" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="694" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E694" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="695" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E695" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="696" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E696" s="2" t="s">
-        <v>942</v>
+        <v>403</v>
       </c>
     </row>
     <row r="697" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E697" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="698" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B698" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E698" s="2"/>
+      <c r="E698" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="699" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E699" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="700" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E700" s="2" t="s">
-        <v>746</v>
+        <v>407</v>
       </c>
     </row>
     <row r="701" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B701" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="E701" s="2"/>
+      <c r="E701" s="2" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="702" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E702" s="1" t="s">
-        <v>411</v>
+      <c r="E702" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="703" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E703" s="1" t="s">
-        <v>412</v>
-      </c>
+      <c r="B703" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E703" s="2"/>
     </row>
     <row r="704" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E704" s="1" t="s">
-        <v>748</v>
+      <c r="E704" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="705" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E705" s="1" t="s">
-        <v>413</v>
+      <c r="E705" s="2" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B706" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="E706" s="1"/>
+        <v>745</v>
+      </c>
+      <c r="E706" s="2"/>
     </row>
     <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E707" s="2" t="s">
-        <v>750</v>
+      <c r="E707" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B708" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="E708" s="2"/>
+      <c r="E708" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="709" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E709" s="1" t="s">
-        <v>414</v>
+        <v>746</v>
       </c>
     </row>
     <row r="710" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E710" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B711" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E711" s="1"/>
+    </row>
+    <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E712" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B713" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E713" s="2"/>
+    </row>
+    <row r="714" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E714" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E715" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E716" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B717" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E717" s="2"/>
+    </row>
+    <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E718" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A719"/>
+      <c r="B719" s="10"/>
+      <c r="C719" s="11"/>
+      <c r="D719" s="22"/>
+      <c r="E719" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F719" s="23"/>
+      <c r="G719" s="24"/>
+      <c r="H719" s="25"/>
+      <c r="I719" s="26"/>
+      <c r="J719" s="26"/>
+      <c r="K719" s="26"/>
+      <c r="L719" s="26"/>
+      <c r="M719" s="26"/>
+    </row>
+    <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E720" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="721" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E721" s="9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="722" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E722" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="723" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E723" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="724" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E724" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="725" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E725" s="9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="726" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E726" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="727" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E727" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="728" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E728" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="729" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="730" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E730" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="731" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E731" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="732" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E732" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="733" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E733" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="734" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E734" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="735" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E735" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="736" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E736" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E737" s="9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E738" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E711" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B712" s="5" t="s">
+    <row r="739" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E739" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="740" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E740" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B741" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E712" s="2"/>
-    </row>
-    <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E713" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="714" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A714"/>
-      <c r="B714" s="10"/>
-      <c r="C714" s="11"/>
-      <c r="D714" s="22"/>
-      <c r="E714" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F714" s="23"/>
-      <c r="G714" s="24"/>
-      <c r="H714" s="25"/>
-      <c r="I714" s="26"/>
-      <c r="J714" s="26"/>
-      <c r="K714" s="26"/>
-      <c r="L714" s="26"/>
-      <c r="M714" s="26"/>
-    </row>
-    <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E715" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E716" s="9" t="s">
+      <c r="E741" s="2"/>
+    </row>
+    <row r="742" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E742" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="743" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E743" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="744" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E744" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="745" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E745" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D746" s="9"/>
+      <c r="E746" s="9" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="747" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D747" s="9"/>
+      <c r="E747" s="20" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D748" s="9"/>
+      <c r="E748" s="20" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D749" s="9"/>
+      <c r="E749" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="750" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D750" s="9"/>
+      <c r="E750" s="20" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D751" s="9"/>
+      <c r="E751" s="20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D752" s="9"/>
+      <c r="E752" s="9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D753" s="9"/>
+      <c r="E753" s="9" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E717" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E718" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="719" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E719" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E720" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E721" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="722" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E722" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E723" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E724" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E725" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E726" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E727" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="728" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E728" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E729" s="2" t="s">
+    <row r="754" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D754" s="9"/>
+      <c r="E754" s="20" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D755" s="9"/>
+      <c r="E755" s="9" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="730" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E730" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E731" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E732" s="9" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="733" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E733" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E734" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E735" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B736" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="737" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E737" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="738" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E738" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="739" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E739" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="740" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E740" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="741" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D741" s="9"/>
-      <c r="E741" s="9" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="742" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D742" s="9"/>
-      <c r="E742" s="20" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="743" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D743" s="9"/>
-      <c r="E743" s="20" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="744" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D744" s="9"/>
-      <c r="E744" s="9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="745" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D745" s="9"/>
-      <c r="E745" s="20" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="746" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D746" s="9"/>
-      <c r="E746" s="20" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="747" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D747" s="9"/>
-      <c r="E747" s="9" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="748" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D748" s="9"/>
-      <c r="E748" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="749" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D749" s="9"/>
-      <c r="E749" s="20" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="750" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D750" s="9"/>
-      <c r="E750" s="9" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="751" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A751" s="17"/>
-      <c r="B751" s="18"/>
-      <c r="C751" s="18"/>
-      <c r="D751" s="19"/>
-      <c r="E751" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="F751" s="16"/>
-      <c r="G751" s="16"/>
-      <c r="H751" s="16"/>
-      <c r="I751" s="17"/>
-      <c r="J751" s="17"/>
-      <c r="K751" s="17"/>
-      <c r="L751" s="17"/>
-      <c r="M751" s="17"/>
-    </row>
-    <row r="752" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A752" s="17"/>
-      <c r="B752" s="18"/>
-      <c r="C752" s="18"/>
-      <c r="D752" s="19"/>
-      <c r="E752" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G752" s="16"/>
-      <c r="H752" s="16"/>
-      <c r="I752" s="17"/>
-      <c r="J752" s="17"/>
-      <c r="K752" s="17"/>
-      <c r="L752" s="17"/>
-      <c r="M752" s="17"/>
-    </row>
-    <row r="753" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A753" s="17"/>
-      <c r="B753" s="18"/>
-      <c r="C753" s="18"/>
-      <c r="D753" s="19"/>
-      <c r="E753" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G753" s="16"/>
-      <c r="H753" s="16"/>
-      <c r="I753" s="17"/>
-      <c r="J753" s="17"/>
-      <c r="K753" s="17"/>
-      <c r="L753" s="17"/>
-      <c r="M753" s="17"/>
-    </row>
-    <row r="754" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A754" s="17"/>
-      <c r="B754" s="18"/>
-      <c r="C754" s="18"/>
-      <c r="D754" s="19"/>
-      <c r="E754" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F754" s="16"/>
-      <c r="G754" s="16"/>
-      <c r="H754" s="16"/>
-      <c r="I754" s="17"/>
-      <c r="J754" s="17"/>
-      <c r="K754" s="17"/>
-      <c r="L754" s="17"/>
-      <c r="M754" s="17"/>
-    </row>
-    <row r="755" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A755" s="17"/>
-      <c r="B755" s="18"/>
-      <c r="C755" s="18"/>
-      <c r="D755" s="19"/>
-      <c r="E755" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F755" s="16"/>
-      <c r="G755" s="16"/>
-      <c r="H755" s="16"/>
-      <c r="I755" s="17"/>
-      <c r="J755" s="17"/>
-      <c r="K755" s="17"/>
-      <c r="L755" s="17"/>
-      <c r="M755" s="17"/>
     </row>
     <row r="756" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A756" s="17"/>
       <c r="B756" s="18"/>
       <c r="C756" s="18"/>
       <c r="D756" s="19"/>
-      <c r="E756" s="20" t="s">
-        <v>992</v>
+      <c r="E756" s="9" t="s">
+        <v>989</v>
       </c>
       <c r="F756" s="16"/>
       <c r="G756" s="16"/>
@@ -20503,703 +20548,690 @@
       <c r="L756" s="17"/>
       <c r="M756" s="17"/>
     </row>
-    <row r="757" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D757" s="9"/>
+    <row r="757" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A757" s="17"/>
+      <c r="B757" s="18"/>
+      <c r="C757" s="18"/>
+      <c r="D757" s="19"/>
       <c r="E757" s="20" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="758" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D758" s="9"/>
+        <v>1009</v>
+      </c>
+      <c r="G757" s="16"/>
+      <c r="H757" s="16"/>
+      <c r="I757" s="17"/>
+      <c r="J757" s="17"/>
+      <c r="K757" s="17"/>
+      <c r="L757" s="17"/>
+      <c r="M757" s="17"/>
+    </row>
+    <row r="758" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A758" s="17"/>
+      <c r="B758" s="18"/>
+      <c r="C758" s="18"/>
+      <c r="D758" s="19"/>
       <c r="E758" s="9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="759" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D759" s="9"/>
-      <c r="E759" s="9" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="760" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E760" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="761" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E761" s="9" t="s">
-        <v>994</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="G758" s="16"/>
+      <c r="H758" s="16"/>
+      <c r="I758" s="17"/>
+      <c r="J758" s="17"/>
+      <c r="K758" s="17"/>
+      <c r="L758" s="17"/>
+      <c r="M758" s="17"/>
+    </row>
+    <row r="759" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A759" s="17"/>
+      <c r="B759" s="18"/>
+      <c r="C759" s="18"/>
+      <c r="D759" s="19"/>
+      <c r="E759" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F759" s="16"/>
+      <c r="G759" s="16"/>
+      <c r="H759" s="16"/>
+      <c r="I759" s="17"/>
+      <c r="J759" s="17"/>
+      <c r="K759" s="17"/>
+      <c r="L759" s="17"/>
+      <c r="M759" s="17"/>
+    </row>
+    <row r="760" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A760" s="17"/>
+      <c r="B760" s="18"/>
+      <c r="C760" s="18"/>
+      <c r="D760" s="19"/>
+      <c r="E760" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F760" s="16"/>
+      <c r="G760" s="16"/>
+      <c r="H760" s="16"/>
+      <c r="I760" s="17"/>
+      <c r="J760" s="17"/>
+      <c r="K760" s="17"/>
+      <c r="L760" s="17"/>
+      <c r="M760" s="17"/>
+    </row>
+    <row r="761" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A761" s="17"/>
+      <c r="B761" s="18"/>
+      <c r="C761" s="18"/>
+      <c r="D761" s="19"/>
+      <c r="E761" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="F761" s="16"/>
+      <c r="G761" s="16"/>
+      <c r="H761" s="16"/>
+      <c r="I761" s="17"/>
+      <c r="J761" s="17"/>
+      <c r="K761" s="17"/>
+      <c r="L761" s="17"/>
+      <c r="M761" s="17"/>
     </row>
     <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E762" s="2" t="s">
-        <v>756</v>
+      <c r="D762" s="9"/>
+      <c r="E762" s="20" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D763" s="9"/>
       <c r="E763" s="9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E764" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D764" s="9"/>
+      <c r="E764" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E765" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E766" s="9" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E767" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D768" s="9"/>
+      <c r="E768" s="9" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E769" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E770" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E771" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E765" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E766" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B767" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="E767" s="2"/>
-    </row>
-    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C768" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C769" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="E769" s="2"/>
-    </row>
-    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E770" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B771" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="E771" s="2"/>
-    </row>
-    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C772" s="7" t="s">
-        <v>765</v>
+    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B772" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="E772" s="2"/>
     </row>
     <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C773" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E773" s="2"/>
     </row>
-    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E774" s="2" t="s">
+    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C774" s="7" t="s">
         <v>760</v>
       </c>
+      <c r="E774" s="2"/>
     </row>
     <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B775" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E775" s="2"/>
-    </row>
-    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C776" s="7" t="s">
-        <v>761</v>
+      <c r="E775" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B776" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="E776" s="2"/>
     </row>
     <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C777" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E777" s="2"/>
     </row>
-    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E778" s="1" t="s">
-        <v>960</v>
-      </c>
+    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C778" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E778" s="2"/>
     </row>
     <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E779" s="1" t="s">
-        <v>961</v>
+      <c r="E779" s="2" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E780" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E781" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E782" s="1" t="s">
-        <v>435</v>
-      </c>
+      <c r="B780" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E780" s="2"/>
+    </row>
+    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C781" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E781" s="2"/>
+    </row>
+    <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C782" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E782" s="2"/>
     </row>
     <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E783" s="2" t="s">
-        <v>436</v>
+      <c r="E783" s="1" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E784" s="1" t="s">
-        <v>437</v>
+        <v>959</v>
       </c>
     </row>
     <row r="785" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E785" s="2" t="s">
-        <v>438</v>
+      <c r="E785" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="786" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E786" s="2" t="s">
-        <v>439</v>
+      <c r="E786" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="787" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E787" s="2" t="s">
-        <v>440</v>
+      <c r="E787" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="788" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E788" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E789" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="790" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E790" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="791" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E791" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="792" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E792" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="793" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E793" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="794" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E794" s="2" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="790" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E790" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="791" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E791" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="792" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E792" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="793" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E793" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="794" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E794" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="795" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E795" s="1" t="s">
-        <v>965</v>
+        <v>442</v>
       </c>
     </row>
     <row r="796" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E796" s="1" t="s">
-        <v>445</v>
+        <v>960</v>
       </c>
     </row>
     <row r="797" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E797" s="1" t="s">
-        <v>446</v>
+        <v>961</v>
       </c>
     </row>
     <row r="798" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E798" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="799" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E799" s="2" t="s">
-        <v>448</v>
+      <c r="E799" s="1" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="800" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E800" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="801" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E801" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E801" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E802" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E803" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E804" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E805" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E806" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E807" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E802" s="2" t="s">
+    <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E808" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E803" s="2" t="s">
+    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E809" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E804" s="2" t="s">
+    <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E810" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E805" s="2" t="s">
+    <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E811" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E806" s="2" t="s">
+    <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E812" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E807" s="2" t="s">
+    <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E813" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E808" s="2" t="s">
+    <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E814" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="2" t="s">
+    <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E815" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E810" s="2" t="s">
+    <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E816" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E811" s="2" t="s">
+    <row r="817" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A817" s="17"/>
+      <c r="B817" s="18"/>
+      <c r="C817" s="18"/>
+      <c r="D817" s="19"/>
+      <c r="E817" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="F817" s="16"/>
+      <c r="G817" s="16"/>
+      <c r="H817" s="16"/>
+      <c r="I817" s="17"/>
+      <c r="J817" s="17"/>
+      <c r="K817" s="17"/>
+      <c r="L817" s="17"/>
+      <c r="M817" s="17"/>
+    </row>
+    <row r="818" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E818" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="812" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A812" s="17"/>
-      <c r="B812" s="18"/>
-      <c r="C812" s="18"/>
-      <c r="D812" s="19"/>
-      <c r="E812" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="F812" s="16"/>
-      <c r="G812" s="16"/>
-      <c r="H812" s="16"/>
-      <c r="I812" s="17"/>
-      <c r="J812" s="17"/>
-      <c r="K812" s="17"/>
-      <c r="L812" s="17"/>
-      <c r="M812" s="17"/>
-    </row>
-    <row r="813" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E813" s="2" t="s">
+    <row r="819" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E819" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E814" s="2" t="s">
+    <row r="820" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E820" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="815" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E815" s="2" t="s">
+    <row r="821" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E821" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E816" s="2" t="s">
+    <row r="822" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E822" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="2" t="s">
+    <row r="823" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E823" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="2" t="s">
+    <row r="824" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E824" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="2" t="s">
+    <row r="825" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E825" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E820" s="2" t="s">
+    <row r="826" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E826" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E821" s="2" t="s">
+    <row r="827" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E827" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E822" s="2" t="s">
+    <row r="828" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E828" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E823" s="2" t="s">
+    <row r="829" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E829" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E824" s="2" t="s">
+    <row r="830" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B830" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E830" s="2"/>
+    </row>
+    <row r="831" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D831" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E831" s="2"/>
+    </row>
+    <row r="832" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E832" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B825" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="E825" s="2"/>
-    </row>
-    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D826" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="E826" s="2"/>
-    </row>
-    <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E827" s="4" t="s">
+    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E833" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E828" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B829" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="E829" s="2"/>
-    </row>
-    <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E830" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B831" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E831" s="1"/>
-    </row>
-    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E832" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
     <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E834" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E835" s="9" t="s">
-        <v>1025</v>
+      <c r="B834" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E834" s="2"/>
+    </row>
+    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E835" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B836" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E836" s="2"/>
-    </row>
-    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C837" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E837" s="2"/>
+        <v>767</v>
+      </c>
+      <c r="E836" s="1"/>
+    </row>
+    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E837" s="2" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E838" s="2" t="s">
-        <v>879</v>
+      <c r="E838" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E839" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E840" s="9" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B841" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E841" s="2"/>
+    </row>
+    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C842" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E842" s="2"/>
+    </row>
+    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E843" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E844" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B845" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E845" s="2"/>
+    </row>
+    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E846" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B840" s="5" t="s">
+    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E847" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E848" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B849" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E840" s="2"/>
-    </row>
-    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E841" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E842" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E843" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B844" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E844" s="2"/>
-    </row>
-    <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E845" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B846" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="E846" s="1"/>
-    </row>
-    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E847" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B848" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E848" s="1"/>
-    </row>
-    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E849" s="1" t="s">
-        <v>478</v>
-      </c>
+      <c r="E849" s="2"/>
     </row>
     <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E850" s="1" t="s">
-        <v>883</v>
+        <v>772</v>
       </c>
     </row>
     <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E851" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="B851" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E851" s="1"/>
     </row>
     <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E852" s="2" t="s">
-        <v>480</v>
+      <c r="E852" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B853" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E853" s="1"/>
+    </row>
+    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E854" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E855" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E856" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E857" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B858" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E858" s="2"/>
+    </row>
+    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E859" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B860" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="E853" s="2"/>
-    </row>
-    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E854" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B855" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="E855" s="2"/>
-    </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E856" s="2" t="s">
+      <c r="E860" s="2"/>
+    </row>
+    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E861" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E862" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E863" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E864" s="20" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E865" s="9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E866" s="9" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B867" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E867" s="1"/>
+    </row>
+    <row r="868" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E868" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E857" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E858" s="9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E859" s="20" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E860" s="9" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B861" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E861" s="1"/>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E862" s="1" t="s">
+    <row r="869" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E869" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="1" t="s">
+    <row r="870" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E870" s="9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E871" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E864" s="9" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="865" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E865" s="1" t="s">
+    <row r="872" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E872" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="866" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E866" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="867" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A867" s="17"/>
-      <c r="B867" s="18"/>
-      <c r="C867" s="18"/>
-      <c r="D867" s="19"/>
-      <c r="E867" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="G867" s="16"/>
-      <c r="H867" s="16"/>
-      <c r="I867" s="17"/>
-      <c r="J867" s="17"/>
-      <c r="K867" s="17"/>
-      <c r="L867" s="17"/>
-      <c r="M867" s="17"/>
-    </row>
-    <row r="868" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A868" s="17"/>
-      <c r="B868" s="18"/>
-      <c r="C868" s="18"/>
-      <c r="D868" s="19"/>
-      <c r="E868" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G868" s="16"/>
-      <c r="H868" s="16"/>
-      <c r="I868" s="17"/>
-      <c r="J868" s="17"/>
-      <c r="K868" s="17"/>
-      <c r="L868" s="17"/>
-      <c r="M868" s="17"/>
-    </row>
-    <row r="869" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A869" s="17"/>
-      <c r="B869" s="18"/>
-      <c r="C869" s="18"/>
-      <c r="D869" s="19"/>
-      <c r="E869" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="F869" s="16"/>
-      <c r="G869" s="16"/>
-      <c r="H869" s="16"/>
-      <c r="I869" s="17"/>
-      <c r="J869" s="17"/>
-      <c r="K869" s="17"/>
-      <c r="L869" s="17"/>
-      <c r="M869" s="17"/>
-    </row>
-    <row r="870" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A870" s="17"/>
-      <c r="B870" s="18"/>
-      <c r="C870" s="18"/>
-      <c r="D870" s="19"/>
-      <c r="E870" s="20" t="s">
-        <v>999</v>
-      </c>
-      <c r="F870" s="16"/>
-      <c r="G870" s="16"/>
-      <c r="H870" s="16"/>
-      <c r="I870" s="17"/>
-      <c r="J870" s="17"/>
-      <c r="K870" s="17"/>
-      <c r="L870" s="17"/>
-      <c r="M870" s="17"/>
-    </row>
-    <row r="871" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A871" s="17"/>
-      <c r="B871" s="18"/>
-      <c r="C871" s="18"/>
-      <c r="D871" s="19"/>
-      <c r="E871" s="9" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F871" s="16"/>
-      <c r="G871" s="16"/>
-      <c r="H871" s="16"/>
-      <c r="I871" s="17"/>
-      <c r="J871" s="17"/>
-      <c r="K871" s="17"/>
-      <c r="L871" s="17"/>
-      <c r="M871" s="17"/>
-    </row>
-    <row r="872" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A872" s="17"/>
-      <c r="B872" s="18"/>
-      <c r="C872" s="18"/>
-      <c r="D872" s="19"/>
-      <c r="E872" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F872" s="16"/>
-      <c r="G872" s="16"/>
-      <c r="H872" s="16"/>
-      <c r="I872" s="17"/>
-      <c r="J872" s="17"/>
-      <c r="K872" s="17"/>
-      <c r="L872" s="17"/>
-      <c r="M872" s="17"/>
     </row>
     <row r="873" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A873" s="17"/>
       <c r="B873" s="18"/>
       <c r="C873" s="18"/>
       <c r="D873" s="19"/>
-      <c r="E873" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F873" s="16"/>
+      <c r="E873" s="9" t="s">
+        <v>995</v>
+      </c>
       <c r="G873" s="16"/>
       <c r="H873" s="16"/>
       <c r="I873" s="17"/>
@@ -21208,1024 +21240,1125 @@
       <c r="L873" s="17"/>
       <c r="M873" s="17"/>
     </row>
-    <row r="874" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A874" s="17"/>
+      <c r="B874" s="18"/>
+      <c r="C874" s="18"/>
+      <c r="D874" s="19"/>
       <c r="E874" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="875" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E875" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="876" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E876" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="877" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="G874" s="16"/>
+      <c r="H874" s="16"/>
+      <c r="I874" s="17"/>
+      <c r="J874" s="17"/>
+      <c r="K874" s="17"/>
+      <c r="L874" s="17"/>
+      <c r="M874" s="17"/>
+    </row>
+    <row r="875" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A875" s="17"/>
+      <c r="B875" s="18"/>
+      <c r="C875" s="18"/>
+      <c r="D875" s="19"/>
+      <c r="E875" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="F875" s="16"/>
+      <c r="G875" s="16"/>
+      <c r="H875" s="16"/>
+      <c r="I875" s="17"/>
+      <c r="J875" s="17"/>
+      <c r="K875" s="17"/>
+      <c r="L875" s="17"/>
+      <c r="M875" s="17"/>
+    </row>
+    <row r="876" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A876" s="17"/>
+      <c r="B876" s="18"/>
+      <c r="C876" s="18"/>
+      <c r="D876" s="19"/>
+      <c r="E876" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="F876" s="16"/>
+      <c r="G876" s="16"/>
+      <c r="H876" s="16"/>
+      <c r="I876" s="17"/>
+      <c r="J876" s="17"/>
+      <c r="K876" s="17"/>
+      <c r="L876" s="17"/>
+      <c r="M876" s="17"/>
+    </row>
+    <row r="877" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A877" s="17"/>
+      <c r="B877" s="18"/>
+      <c r="C877" s="18"/>
+      <c r="D877" s="19"/>
       <c r="E877" s="9" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="878" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E878" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="879" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E879" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="F877" s="16"/>
+      <c r="G877" s="16"/>
+      <c r="H877" s="16"/>
+      <c r="I877" s="17"/>
+      <c r="J877" s="17"/>
+      <c r="K877" s="17"/>
+      <c r="L877" s="17"/>
+      <c r="M877" s="17"/>
+    </row>
+    <row r="878" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A878" s="17"/>
+      <c r="B878" s="18"/>
+      <c r="C878" s="18"/>
+      <c r="D878" s="19"/>
+      <c r="E878" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F878" s="16"/>
+      <c r="G878" s="16"/>
+      <c r="H878" s="16"/>
+      <c r="I878" s="17"/>
+      <c r="J878" s="17"/>
+      <c r="K878" s="17"/>
+      <c r="L878" s="17"/>
+      <c r="M878" s="17"/>
+    </row>
+    <row r="879" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A879" s="17"/>
+      <c r="B879" s="18"/>
+      <c r="C879" s="18"/>
+      <c r="D879" s="19"/>
+      <c r="E879" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F879" s="16"/>
+      <c r="G879" s="16"/>
+      <c r="H879" s="16"/>
+      <c r="I879" s="17"/>
+      <c r="J879" s="17"/>
+      <c r="K879" s="17"/>
+      <c r="L879" s="17"/>
+      <c r="M879" s="17"/>
     </row>
     <row r="880" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E880" s="2" t="s">
-        <v>494</v>
+      <c r="E880" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E881" s="2" t="s">
-        <v>780</v>
+        <v>489</v>
       </c>
     </row>
     <row r="882" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E882" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E883" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E883" s="9" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E884" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="885" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E885" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E886" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="887" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E887" s="2" t="s">
-        <v>500</v>
+        <v>778</v>
       </c>
     </row>
     <row r="888" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E888" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E889" s="9" t="s">
-        <v>1002</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E889" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B890" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E890" s="2"/>
+      <c r="E890" s="2" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D891" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E891" s="2"/>
+      <c r="E891" s="2" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E892" s="1" t="s">
-        <v>502</v>
+      <c r="E892" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E893" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B894" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E894" s="2"/>
-    </row>
-    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E895" s="1" t="s">
-        <v>504</v>
+      <c r="E894" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E895" s="9" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E896" s="2" t="s">
-        <v>642</v>
-      </c>
+      <c r="B896" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E896" s="2"/>
     </row>
     <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E897" s="2" t="s">
-        <v>505</v>
-      </c>
+      <c r="D897" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E897" s="2"/>
     </row>
     <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B898" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="E898" s="2"/>
+      <c r="E898" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="899" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E899" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="900" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E900" s="2" t="s">
-        <v>507</v>
-      </c>
+      <c r="B900" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E900" s="2"/>
     </row>
     <row r="901" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B901" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E901" s="2"/>
+      <c r="E901" s="1" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="902" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E902" s="1" t="s">
-        <v>508</v>
+      <c r="E902" s="2" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="903" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E903" s="1" t="s">
-        <v>782</v>
+      <c r="E903" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="904" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B904" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E904" s="1"/>
+        <v>612</v>
+      </c>
+      <c r="E904" s="2"/>
     </row>
     <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E905" s="1" t="s">
-        <v>614</v>
+      <c r="E905" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="906" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B906" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="E906" s="1"/>
+      <c r="E906" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="907" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E907" s="2" t="s">
-        <v>669</v>
-      </c>
+      <c r="B907" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E907" s="2"/>
     </row>
     <row r="908" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B908" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E908" s="2"/>
-    </row>
-    <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C909" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="E909" s="2"/>
-    </row>
-    <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C910" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="E910" s="2"/>
-    </row>
-    <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C911" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="E911" s="2"/>
+      <c r="E908" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E909" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B910" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E910" s="1"/>
+    </row>
+    <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E911" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="912" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E912" s="4" t="s">
+      <c r="B912" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E912" s="1"/>
+    </row>
+    <row r="913" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E913" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="914" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B914" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E914" s="2"/>
+    </row>
+    <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C915" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="E915" s="2"/>
+    </row>
+    <row r="916" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C916" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E916" s="2"/>
+    </row>
+    <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C917" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E917" s="2"/>
+    </row>
+    <row r="918" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E918" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="919" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E919" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="913" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E913" s="2" t="s">
+    <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E920" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="914" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E914" s="1" t="s">
+    <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E921" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="915" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E915" s="2" t="s">
+    <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E922" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="916" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E916" s="2" t="s">
+    <row r="923" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E923" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="917" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E917" s="2" t="s">
+    <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E924" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="918" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E918" s="2" t="s">
+    <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E925" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="919" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E919" s="2" t="s">
+    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E926" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="920" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E920" s="1" t="s">
+    <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E927" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="921" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E921" s="1" t="s">
+    <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E928" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="922" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E922" s="2" t="s">
+    <row r="929" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E929" s="2" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="923" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E923" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="924" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E924" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="925" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E925" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="926" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E926" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="927" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E927" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="928" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E928" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="929" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E929" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="930" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E930" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="931" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E931" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="932" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E932" s="1" t="s">
-        <v>529</v>
+      <c r="E932" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="933" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E933" s="1" t="s">
-        <v>530</v>
+      <c r="E933" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="934" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E934" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="935" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E935" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="936" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E936" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="937" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E937" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="938" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E938" s="2" t="s">
-        <v>535</v>
+      <c r="E938" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="939" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E939" s="2" t="s">
-        <v>536</v>
+      <c r="E939" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="940" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E940" s="2" t="s">
-        <v>537</v>
+      <c r="E940" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="941" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E941" s="2" t="s">
-        <v>538</v>
+      <c r="E941" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="942" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E942" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="943" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E943" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="944" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E944" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="945" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E945" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="946" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E946" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="947" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E947" s="1" t="s">
-        <v>544</v>
+      <c r="E947" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="948" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E948" s="2" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
     </row>
     <row r="949" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E949" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="950" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E950" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="951" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E951" s="1" t="s">
-        <v>547</v>
+      <c r="E951" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="952" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E952" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="953" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E953" s="2" t="s">
-        <v>549</v>
+      <c r="E953" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="954" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E954" s="2" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
     </row>
     <row r="955" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E955" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="956" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E956" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="957" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E957" s="2" t="s">
-        <v>553</v>
+      <c r="E957" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="958" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E958" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="959" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E959" s="2" t="s">
-        <v>887</v>
+        <v>548</v>
       </c>
     </row>
     <row r="960" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E960" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="961" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E961" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="962" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E962" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="963" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E963" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="964" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E964" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="965" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E965" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="966" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E966" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="967" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E967" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="961" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E961" s="2" t="s">
+    <row r="968" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E968" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="969" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E969" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="962" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E962" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="963" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E963" s="2" t="s">
+    <row r="970" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E970" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="964" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E964" s="2" t="s">
+    <row r="971" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E971" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="965" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E965" s="2" t="s">
+    <row r="972" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E972" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="966" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E966" s="2" t="s">
+    <row r="973" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E973" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="967" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E967" s="1" t="s">
+    <row r="974" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E974" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="968" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E968" s="2" t="s">
+    <row r="975" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E975" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="969" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E969" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="970" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E970" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="971" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B971" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E971" s="2"/>
-    </row>
-    <row r="972" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E972" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="973" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E973" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="974" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E974" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="975" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E975" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="976" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E976" s="1" t="s">
-        <v>957</v>
+    <row r="976" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E976" s="2" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="977" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B977" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="E977" s="1"/>
+        <v>956</v>
+      </c>
+      <c r="E977" s="2"/>
     </row>
     <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E978" s="1" t="s">
-        <v>564</v>
+        <v>952</v>
       </c>
     </row>
     <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E979" s="1" t="s">
-        <v>565</v>
+        <v>957</v>
       </c>
     </row>
     <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E980" s="1" t="s">
-        <v>784</v>
+        <v>953</v>
       </c>
     </row>
     <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E981" s="2" t="s">
-        <v>566</v>
+      <c r="E981" s="1" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E982" s="2" t="s">
-        <v>567</v>
+      <c r="E982" s="1" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B983" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="E983" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="E983" s="1"/>
     </row>
     <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E984" s="1" t="s">
-        <v>888</v>
+        <v>563</v>
       </c>
     </row>
     <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B985" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E985" s="1"/>
+      <c r="E985" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E986" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B987" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E987" s="1"/>
+      <c r="E987" s="2" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E988" s="2" t="s">
-        <v>788</v>
+        <v>566</v>
       </c>
     </row>
     <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B989" s="5" t="s">
-        <v>789</v>
+        <v>887</v>
       </c>
       <c r="E989" s="2"/>
     </row>
-    <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D990" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E990" s="2"/>
+    <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E990" s="1" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="991" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E991" s="2" t="s">
-        <v>568</v>
-      </c>
+      <c r="B991" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E991" s="1"/>
     </row>
     <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B992" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E992" s="2"/>
+      <c r="E992" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="993" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E993" s="2" t="s">
-        <v>569</v>
-      </c>
+      <c r="B993" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E993" s="1"/>
     </row>
     <row r="994" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E994" s="1" t="s">
-        <v>570</v>
+      <c r="E994" s="2" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="995" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E995" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="996" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E996" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="B995" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E995" s="2"/>
+    </row>
+    <row r="996" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D996" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E996" s="2"/>
     </row>
     <row r="997" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E997" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="998" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E998" s="2" t="s">
-        <v>574</v>
-      </c>
+      <c r="B998" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E998" s="2"/>
     </row>
     <row r="999" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E999" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1000" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1000" s="2" t="s">
-        <v>576</v>
+      <c r="E1000" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="1001" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1001" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1002" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1002" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E1002" s="1"/>
+      <c r="E1002" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="1003" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1003" s="2" t="s">
-        <v>797</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1004" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1004" s="5" t="s">
+      <c r="E1004" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1005" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1006" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1007" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1008" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1008" s="1"/>
+    </row>
+    <row r="1009" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1009" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1010" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E1010" s="2"/>
+    </row>
+    <row r="1011" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1011" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1012" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="E1004" s="2"/>
-    </row>
-    <row r="1005" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1005" s="1" t="s">
+      <c r="E1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D1013" s="6" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="1006" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1006" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="E1006" s="1"/>
-    </row>
-    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1007" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="E1007" s="1"/>
-    </row>
-    <row r="1008" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1008" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="1009" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1009" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="1010" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1010" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="1011" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1011" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1012" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="1013" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1013" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1013" s="2"/>
+      <c r="E1013" s="1"/>
     </row>
     <row r="1014" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1014" s="2" t="s">
-        <v>646</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1015" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1015" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E1015" s="2"/>
+      <c r="E1015" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="1016" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1016" s="1" t="s">
-        <v>799</v>
+      <c r="E1016" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="1017" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1017" s="1" t="s">
-        <v>582</v>
+      <c r="E1017" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="1018" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1018" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="1019" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1019" s="5" t="s">
-        <v>800</v>
+        <v>643</v>
       </c>
       <c r="E1019" s="2"/>
     </row>
     <row r="1020" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1020" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1020" s="2"/>
+      <c r="E1020" s="2" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="1021" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1021" s="1" t="s">
-        <v>649</v>
-      </c>
+      <c r="B1021" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1021" s="2"/>
     </row>
     <row r="1022" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1022" s="1" t="s">
-        <v>978</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1023" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1023" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1024" s="9" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1024" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1025" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="E1025" s="1"/>
+        <v>798</v>
+      </c>
+      <c r="E1025" s="2"/>
     </row>
     <row r="1026" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1026" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="D1026" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1026" s="2"/>
     </row>
     <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1027" s="5" t="s">
+      <c r="E1027" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E1027" s="2"/>
     </row>
     <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1028" s="2" t="s">
-        <v>584</v>
+      <c r="E1028" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1029" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1030" s="2" t="s">
-        <v>585</v>
+      <c r="E1029" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1030" s="9" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="1031" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1031" s="2" t="s">
-        <v>586</v>
-      </c>
+      <c r="B1031" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E1031" s="1"/>
     </row>
     <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1032" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="E1032" s="2"/>
+      <c r="E1032" s="2" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1033" s="4" t="s">
-        <v>587</v>
-      </c>
+      <c r="B1033" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1033" s="2"/>
     </row>
     <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1034" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1035" s="21" t="s">
-        <v>1017</v>
+      <c r="E1034" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1035" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1036" s="2" t="s">
-        <v>804</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1037" s="1" t="s">
-        <v>589</v>
+      <c r="E1037" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1038" s="1" t="s">
-        <v>590</v>
-      </c>
+      <c r="B1038" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1038" s="2"/>
     </row>
     <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1039" s="2" t="s">
-        <v>591</v>
+      <c r="E1039" s="4" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="1040" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1040" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1041" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1041" s="21" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1042" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1042" s="2" t="s">
-        <v>594</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1043" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1043" s="2" t="s">
-        <v>595</v>
+      <c r="E1043" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="1044" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1044" s="2" t="s">
-        <v>596</v>
+      <c r="E1044" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="1045" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1045" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1046" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1047"/>
-      <c r="B1047" s="10"/>
-      <c r="C1047" s="11"/>
-      <c r="D1047" s="6"/>
-      <c r="E1047" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F1047" s="23"/>
-      <c r="G1047" s="24"/>
-      <c r="H1047" s="25"/>
-      <c r="I1047" s="26"/>
-      <c r="J1047" s="26"/>
-      <c r="K1047" s="26"/>
-      <c r="L1047" s="26"/>
-      <c r="M1047" s="26"/>
-    </row>
-    <row r="1048" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1048"/>
-      <c r="B1048" s="10"/>
-      <c r="C1048" s="11"/>
-      <c r="D1048" s="12"/>
-      <c r="E1048" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F1048" s="23"/>
-      <c r="G1048" s="24"/>
-      <c r="H1048" s="25"/>
-      <c r="I1048" s="26"/>
-      <c r="J1048" s="26"/>
-      <c r="K1048" s="26"/>
-      <c r="L1048" s="26"/>
-      <c r="M1048" s="26"/>
-      <c r="N1048" s="12"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1046" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1047" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1048" s="2" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="1049" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1049" s="2" t="s">
-        <v>968</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1050" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1050" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1051" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1052" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1053"/>
+      <c r="B1053" s="10"/>
+      <c r="C1053" s="11"/>
+      <c r="D1053" s="6"/>
+      <c r="E1053" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1053" s="23"/>
+      <c r="G1053" s="24"/>
+      <c r="H1053" s="25"/>
+      <c r="I1053" s="26"/>
+      <c r="J1053" s="26"/>
+      <c r="K1053" s="26"/>
+      <c r="L1053" s="26"/>
+      <c r="M1053" s="26"/>
+    </row>
+    <row r="1054" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1054"/>
+      <c r="B1054" s="10"/>
+      <c r="C1054" s="11"/>
+      <c r="D1054" s="12"/>
+      <c r="E1054" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F1054" s="23"/>
+      <c r="G1054" s="24"/>
+      <c r="H1054" s="25"/>
+      <c r="I1054" s="26"/>
+      <c r="J1054" s="26"/>
+      <c r="K1054" s="26"/>
+      <c r="L1054" s="26"/>
+      <c r="M1054" s="26"/>
+      <c r="N1054" s="12"/>
+    </row>
+    <row r="1055" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1055" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1056" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1057" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1058" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1058" s="2"/>
+    </row>
+    <row r="1059" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1059" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1060" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1060" s="1"/>
+    </row>
+    <row r="1061" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1061" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1062" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E1062" s="1"/>
+    </row>
+    <row r="1063" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1063" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="1051" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1051" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1052" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="E1052" s="2"/>
-    </row>
-    <row r="1053" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1053" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1054" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="E1054" s="1"/>
-    </row>
-    <row r="1055" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1055" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1056" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E1056" s="1"/>
-    </row>
-    <row r="1057" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1057" s="2" t="s">
+    <row r="1064" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1064" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="1058" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1058" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="1059" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1059" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="1060" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1060" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="1061" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1061" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1061" s="2"/>
-    </row>
-    <row r="1062" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1062" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="1063" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1063" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="1064" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1064" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="E1064" s="1"/>
     </row>
     <row r="1065" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1065" s="2" t="s">
-        <v>812</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1066" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1067" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1067" s="2"/>
+    </row>
+    <row r="1068" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1068" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1069" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1070" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1070" s="1"/>
+    </row>
+    <row r="1071" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1071" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/data/taxon genera files/F genera reduced.xlsx
+++ b/data/taxon genera files/F genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1078">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been ascribed.&gt;</t>
   </si>
@@ -5233,20 +5233,6 @@
   </si>
   <si>
     <r>
-      <t>Foveosporites crassus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kao 1980</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Foveosporites cyclicus</t>
     </r>
     <r>
@@ -8701,9 +8687,6 @@
     <t>FOTHERGILLIA</t>
   </si>
   <si>
-    <t>FOVEOMONOCOLPITES</t>
-  </si>
-  <si>
     <t>FRAXINUS</t>
   </si>
   <si>
@@ -10950,30 +10933,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Levet-Carette 1963; p. 109.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Obligate junior synonym of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foveotriletes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Van der Hammen ex Potonié.&gt;</t>
     </r>
   </si>
   <si>
@@ -15867,6 +15826,316 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Saxena &amp; Sarkar 1994</t>
+    </r>
+  </si>
+  <si>
+    <t>Foveosporites crassus Gao 1980</t>
+  </si>
+  <si>
+    <r>
+      <t>Foveolatipollenites ergönüli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Yahsiman 1961b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fractisporonites elongatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Srivastava) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fractisporonites lucibiliporus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Srivastava &amp; Al-Tayyar 2013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fractisporonites filiformis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Van der Hammen) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fractisporonites nodosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Srivastava) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fractisporonites pittsburgensis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Traverse &amp; Ash 1994</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Friedrichipollis geminus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Korasidis, in Korasidis et al., 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fractisporonites lucibiliporus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Srivastava &amp; Al-Tayyar </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saxena 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Obligate junior synonym of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foveotriletes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Van der Hammen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Potonié.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOVEOMONOCOLPITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wijmstra 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Foveomonocolpites oblongus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gomes et al. 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Frankea longiuscula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Burmann 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Frankea longiuscula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> var. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>darriwillense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Le Hérissé et al. 2017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fungochitina microspinosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Grahn &amp; Melo 2005</t>
     </r>
   </si>
 </sst>
@@ -16032,7 +16301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16099,6 +16368,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16410,10 +16685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1071"/>
+  <dimension ref="A1:N1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="N744" sqref="N744"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16427,12 +16702,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16452,7 +16727,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16462,13 +16737,13 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -16478,18 +16753,18 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -16499,7 +16774,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="16" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13"/>
@@ -16512,24 +16787,24 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -16540,7 +16815,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -16550,7 +16825,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -16601,7 +16876,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -16638,7 +16913,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -16651,12 +16926,12 @@
     </row>
     <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E31" s="16" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E32" s="9" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -16666,7 +16941,7 @@
     </row>
     <row r="34" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E34" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -16686,7 +16961,7 @@
     </row>
     <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16696,7 +16971,7 @@
     </row>
     <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16742,7 +17017,7 @@
     </row>
     <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16752,7 +17027,7 @@
     </row>
     <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16787,7 +17062,7 @@
     </row>
     <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16797,41 +17072,41 @@
     </row>
     <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D63" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E64" s="9" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E66" s="28" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -16840,7 +17115,7 @@
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -16853,56 +17128,56 @@
     </row>
     <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E68" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E70" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E71" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E77" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -16912,7 +17187,7 @@
     </row>
     <row r="79" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E79" s="2"/>
     </row>
@@ -16923,12 +17198,12 @@
     </row>
     <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -16999,7 +17274,7 @@
     </row>
     <row r="96" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E96" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17009,13 +17284,13 @@
     </row>
     <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D99" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -17026,12 +17301,12 @@
     </row>
     <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E101" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E102" s="2"/>
     </row>
@@ -17052,7 +17327,7 @@
     </row>
     <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -17063,13 +17338,13 @@
     </row>
     <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E109" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17099,12 +17374,12 @@
     </row>
     <row r="115" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E115" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E116" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17134,7 +17409,7 @@
     </row>
     <row r="122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E122" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17149,7 +17424,7 @@
     </row>
     <row r="125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E125" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17159,7 +17434,7 @@
     </row>
     <row r="127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -17170,12 +17445,12 @@
     </row>
     <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B130" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -17186,7 +17461,7 @@
     </row>
     <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E132" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17206,7 +17481,7 @@
     </row>
     <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E136" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17221,13 +17496,13 @@
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E140" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17237,45 +17512,45 @@
     </row>
     <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E142" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E144" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E146" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E148" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -17286,23 +17561,23 @@
     </row>
     <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E151" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E154" s="1"/>
     </row>
@@ -17318,40 +17593,40 @@
     </row>
     <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B158" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E161" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E163" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17361,24 +17636,24 @@
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E166" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17393,13 +17668,13 @@
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E172" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17434,7 +17709,7 @@
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E179" s="2"/>
     </row>
@@ -17455,7 +17730,7 @@
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E183" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17475,12 +17750,12 @@
     </row>
     <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E187" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E188" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17595,7 +17870,7 @@
     </row>
     <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E211" s="1"/>
     </row>
@@ -17631,7 +17906,7 @@
     </row>
     <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E218" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -17660,7 +17935,7 @@
       <c r="C223" s="18"/>
       <c r="D223" s="19"/>
       <c r="E223" s="9" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -17683,7 +17958,7 @@
     </row>
     <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B226" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E226" s="2"/>
     </row>
@@ -17834,13 +18109,13 @@
     </row>
     <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B256" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E257" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17850,35 +18125,35 @@
     </row>
     <row r="259" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E260" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B261" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C262" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E263" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E264" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17893,7 +18168,7 @@
     </row>
     <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B267" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E267" s="2"/>
     </row>
@@ -17904,7 +18179,7 @@
     </row>
     <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E269" s="27" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17929,17 +18204,17 @@
     </row>
     <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E274" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E276" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17949,12 +18224,12 @@
     </row>
     <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E278" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E279" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17974,7 +18249,7 @@
     </row>
     <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E283" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17994,7 +18269,7 @@
     </row>
     <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E287" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18019,29 +18294,29 @@
     </row>
     <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E293" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E295" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -18052,7 +18327,7 @@
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18062,7 +18337,7 @@
     </row>
     <row r="300" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B300" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E300" s="1"/>
     </row>
@@ -18078,7 +18353,7 @@
     </row>
     <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18093,29 +18368,29 @@
     </row>
     <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B306" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E307" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B308" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E309" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B310" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E310" s="1"/>
     </row>
@@ -18126,12 +18401,12 @@
     </row>
     <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E312" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B313" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E313" s="2"/>
     </row>
@@ -18147,18 +18422,18 @@
     </row>
     <row r="316" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B316" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E317" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B318" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E318" s="2"/>
     </row>
@@ -18179,68 +18454,68 @@
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E322" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B323" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E324" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B325" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D326" s="6" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B328" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E329" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B330" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E331" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B332" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E333" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18255,7 +18530,7 @@
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B336" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E336" s="1"/>
     </row>
@@ -18266,7 +18541,7 @@
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E338" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18316,7 +18591,7 @@
     </row>
     <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E348" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18336,7 +18611,7 @@
     </row>
     <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E352" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18396,7 +18671,7 @@
     </row>
     <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E364" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18436,13 +18711,13 @@
     </row>
     <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B372" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D373" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E373" s="2"/>
     </row>
@@ -18473,18 +18748,18 @@
     </row>
     <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B379" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E380" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E381" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18494,7 +18769,7 @@
     </row>
     <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E383" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18509,7 +18784,7 @@
     </row>
     <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E386" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18534,7 +18809,7 @@
     </row>
     <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E391" s="3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18559,12 +18834,12 @@
     </row>
     <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E396" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E397" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18574,7 +18849,7 @@
     </row>
     <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E399" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18589,7 +18864,7 @@
     </row>
     <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E402" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18614,7 +18889,7 @@
     </row>
     <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E407" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18624,7 +18899,7 @@
     </row>
     <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E409" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18669,12 +18944,12 @@
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E419" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18684,7 +18959,7 @@
     </row>
     <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E421" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18709,7 +18984,7 @@
     </row>
     <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E426" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18719,7 +18994,7 @@
     </row>
     <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E428" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18739,12 +19014,12 @@
     </row>
     <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E432" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="433" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E433" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="434" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18759,7 +19034,7 @@
     </row>
     <row r="436" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E436" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18769,7 +19044,7 @@
     </row>
     <row r="438" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E438" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18784,7 +19059,7 @@
     </row>
     <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E441" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18809,7 +19084,7 @@
     </row>
     <row r="446" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B446" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E446" s="2"/>
     </row>
@@ -18820,7 +19095,7 @@
     </row>
     <row r="448" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E448" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -18865,18 +19140,18 @@
     </row>
     <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B457" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E458" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B459" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E459" s="2"/>
     </row>
@@ -18891,7 +19166,7 @@
       <c r="C461" s="11"/>
       <c r="D461" s="12"/>
       <c r="E461" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F461" s="23"/>
       <c r="G461" s="24"/>
@@ -18904,7 +19179,7 @@
     </row>
     <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E462" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -18934,45 +19209,45 @@
     </row>
     <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E468" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B469" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E469" s="2"/>
     </row>
     <row r="470" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E470" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B471" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E472" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B473" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E474" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B475" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E475" s="1"/>
     </row>
@@ -18983,7 +19258,7 @@
     </row>
     <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E477" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18993,7 +19268,7 @@
     </row>
     <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B479" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E479" s="2"/>
     </row>
@@ -19004,7 +19279,7 @@
     </row>
     <row r="481" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E481" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="482" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -19014,18 +19289,18 @@
     </row>
     <row r="483" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B483" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E484" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B485" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E485" s="2"/>
     </row>
@@ -19036,17 +19311,17 @@
     </row>
     <row r="487" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E487" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E488" s="20" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E489" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="490" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -19060,7 +19335,7 @@
       <c r="C491" s="11"/>
       <c r="D491" s="12"/>
       <c r="E491" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F491" s="23"/>
       <c r="G491" s="24"/>
@@ -19083,17 +19358,17 @@
     </row>
     <row r="494" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E494" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="495" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E495" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="496" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E496" s="20" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="497" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19113,17 +19388,17 @@
     </row>
     <row r="500" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E500" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="501" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E501" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="502" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E502" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="503" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19133,22 +19408,22 @@
     </row>
     <row r="504" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E504" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="505" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E505" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="506" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E506" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="507" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E507" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="508" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19183,79 +19458,79 @@
     </row>
     <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B514" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E514" s="2"/>
     </row>
     <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E515" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B516" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E516" s="2"/>
     </row>
     <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E517" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B518" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E518" s="2"/>
     </row>
     <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E519" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B520" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E520" s="2"/>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E521" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B522" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E522" s="2"/>
     </row>
     <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C523" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D524" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E524" s="2"/>
     </row>
     <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E525" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E526" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B527" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E527" s="2"/>
     </row>
@@ -19271,18 +19546,18 @@
     </row>
     <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B530" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E530" s="2"/>
     </row>
     <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E531" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B532" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E532" s="2"/>
     </row>
@@ -19293,7 +19568,7 @@
     </row>
     <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E534" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19303,7 +19578,7 @@
     </row>
     <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E536" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19338,7 +19613,7 @@
     </row>
     <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E543" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19353,19 +19628,19 @@
     </row>
     <row r="546" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B546" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E546" s="2"/>
     </row>
     <row r="547" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C547" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E547" s="2"/>
     </row>
     <row r="548" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E548" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="549" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -19374,7 +19649,7 @@
       <c r="C549" s="11"/>
       <c r="D549" s="6"/>
       <c r="E549" s="9" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F549" s="23"/>
       <c r="G549" s="24"/>
@@ -19391,7 +19666,7 @@
       <c r="C550" s="11"/>
       <c r="D550" s="6"/>
       <c r="E550" s="9" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F550" s="23"/>
       <c r="G550" s="24"/>
@@ -19408,7 +19683,7 @@
       <c r="C551" s="11"/>
       <c r="D551" s="6"/>
       <c r="E551" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F551" s="23"/>
       <c r="G551" s="24"/>
@@ -19425,7 +19700,7 @@
       <c r="C552" s="11"/>
       <c r="D552" s="12"/>
       <c r="E552" s="9" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F552" s="23"/>
       <c r="G552" s="24"/>
@@ -19442,7 +19717,7 @@
       <c r="C553" s="11"/>
       <c r="D553" s="12"/>
       <c r="E553" s="9" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F553" s="23"/>
       <c r="G553" s="24"/>
@@ -19459,7 +19734,7 @@
       <c r="C554" s="11"/>
       <c r="D554" s="12"/>
       <c r="E554" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F554" s="23"/>
       <c r="G554" s="24"/>
@@ -19476,7 +19751,7 @@
       <c r="C555" s="11"/>
       <c r="D555" s="12"/>
       <c r="E555" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F555" s="23"/>
       <c r="G555" s="24"/>
@@ -19489,22 +19764,22 @@
     </row>
     <row r="556" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E556" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="557" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E557" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="558" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E558" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="559" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B559" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E559" s="1"/>
     </row>
@@ -19535,12 +19810,12 @@
     </row>
     <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E565" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B566" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E566" s="2"/>
     </row>
@@ -19551,12 +19826,12 @@
     </row>
     <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E568" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B569" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E569" s="2"/>
     </row>
@@ -19567,7 +19842,7 @@
     </row>
     <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E571" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19597,19 +19872,19 @@
     </row>
     <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B577" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E577" s="2"/>
     </row>
     <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D578" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E578" s="2"/>
     </row>
     <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E579" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19619,945 +19894,939 @@
     </row>
     <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B581" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E581" s="2"/>
     </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E582" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B583" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E583" s="2"/>
     </row>
     <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E584" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E585" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E586" s="20" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B587" s="5" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E585" s="20" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B586" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="E586" s="2"/>
-    </row>
-    <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E587" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="E587" s="2"/>
     </row>
     <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E588" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E589" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E590" s="1" t="s">
-        <v>731</v>
+        <v>331</v>
       </c>
     </row>
     <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="1" t="s">
-        <v>332</v>
+        <v>729</v>
       </c>
     </row>
     <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E592" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="593" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E593" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E593" s="1" t="s">
+    <row r="594" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E594" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E594" s="1" t="s">
+    <row r="595" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E595" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E595" s="1" t="s">
+    <row r="596" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E596" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E596" s="1" t="s">
+    <row r="597" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E597" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E597" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E598" s="2" t="s">
+    <row r="598" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E598" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="599" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E599" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E599" s="2" t="s">
+    <row r="600" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E600" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E600" s="2" t="s">
+    <row r="601" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E601" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E601" s="2" t="s">
+    <row r="602" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E602" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E602" s="2" t="s">
+    <row r="603" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E603" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E603" s="2" t="s">
+    <row r="604" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E604" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="2" t="s">
+    <row r="605" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E605" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E605" s="2" t="s">
+    <row r="606" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E606" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E606" s="20" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E607" s="2" t="s">
+    <row r="607" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E607" s="20" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E608" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B608" s="5" t="s">
+    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B609" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E609" s="2"/>
+    </row>
+    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E610" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E611" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B612" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="E608" s="2"/>
-    </row>
-    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E609" s="3" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E610" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B611" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="E611" s="2"/>
-    </row>
-    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E612" s="9" t="s">
-        <v>1049</v>
-      </c>
+      <c r="E612" s="2"/>
     </row>
     <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E613" s="9" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E614" s="2" t="s">
-        <v>736</v>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E614" s="9" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="615" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B615" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E615" s="2"/>
+      <c r="E615" s="2" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E616" s="1" t="s">
+      <c r="B616" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E616" s="2"/>
+    </row>
+    <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E617" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E617" s="2" t="s">
+    <row r="618" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E618" s="29" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E619" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="618" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E618" s="2" t="s">
+    <row r="620" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E620" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B619" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="E619" s="2"/>
-    </row>
-    <row r="620" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E620" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="621" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E621" s="1" t="s">
-        <v>738</v>
-      </c>
+    <row r="621" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B621" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E621" s="2"/>
     </row>
     <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E622" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="623" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E623" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E624" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E625" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E624" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B625" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="E625" s="2"/>
     </row>
     <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E626" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B627" s="5" t="s">
-        <v>1016</v>
+        <v>675</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E628" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E628" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B629" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="E629" s="1"/>
+        <v>1013</v>
+      </c>
+      <c r="E629" s="2"/>
     </row>
     <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E630" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B631" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E631" s="1"/>
+    </row>
+    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E632" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E631" s="1"/>
-    </row>
-    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E632" s="2" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E633" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="B633" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E633" s="1"/>
     </row>
     <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E634" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E635" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E636" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E635" s="9" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E636" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E637" s="2" t="s">
-        <v>638</v>
+    <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E637" s="9" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E638" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E639" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E640" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E639" s="1" t="s">
+    <row r="641" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E641" s="1" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E640" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="641" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E641" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="642" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E642" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="643" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E643" s="1" t="s">
-        <v>363</v>
+      <c r="E643" s="2" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="644" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E644" s="1" t="s">
-        <v>364</v>
+      <c r="E644" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="645" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E645" s="1" t="s">
-        <v>896</v>
+        <v>362</v>
       </c>
     </row>
     <row r="646" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="2" t="s">
-        <v>365</v>
+      <c r="E646" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="647" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E647" s="2" t="s">
-        <v>897</v>
+      <c r="E647" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="648" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E648" s="1" t="s">
-        <v>366</v>
+      <c r="E648" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="649" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E649" s="1" t="s">
-        <v>367</v>
+      <c r="E649" s="2" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="650" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E650" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="651" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E651" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="652" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E652" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="653" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E653" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="654" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E654" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="655" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E655" s="1" t="s">
-        <v>905</v>
+        <v>370</v>
       </c>
     </row>
     <row r="656" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E656" s="2" t="s">
-        <v>373</v>
+      <c r="E656" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="657" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E657" s="1" t="s">
-        <v>374</v>
+        <v>902</v>
       </c>
     </row>
     <row r="658" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E658" s="1" t="s">
-        <v>375</v>
+      <c r="E658" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="659" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E659" s="1" t="s">
-        <v>901</v>
+        <v>373</v>
       </c>
     </row>
     <row r="660" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E660" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="661" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E661" s="1" t="s">
-        <v>377</v>
+        <v>898</v>
       </c>
     </row>
     <row r="662" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E662" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="663" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E663" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="664" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E664" s="1" t="s">
-        <v>902</v>
+        <v>377</v>
       </c>
     </row>
     <row r="665" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E665" s="2" t="s">
-        <v>380</v>
+      <c r="E665" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="666" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E666" s="2" t="s">
-        <v>381</v>
+      <c r="E666" s="1" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="667" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E667" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="668" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E668" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="669" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E669" s="2" t="s">
-        <v>898</v>
+        <v>381</v>
       </c>
     </row>
     <row r="670" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E670" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="671" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E671" s="2" t="s">
-        <v>385</v>
+        <v>895</v>
       </c>
     </row>
     <row r="672" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E672" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E673" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="674" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E674" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E675" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="676" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E676" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="677" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E677" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E678" s="9" t="s">
-        <v>906</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E678" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="679" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E679" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E680" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E680" s="9" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="681" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E681" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="682" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E682" s="2" t="s">
-        <v>900</v>
+        <v>392</v>
       </c>
     </row>
     <row r="683" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E683" s="2" t="s">
-        <v>904</v>
+        <v>393</v>
       </c>
     </row>
     <row r="684" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E684" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E685" s="3" t="s">
-        <v>950</v>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E685" s="2" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="686" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E687" s="2" t="s">
-        <v>895</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E687" s="3" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="688" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E688" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="689" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E689" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="690" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E690" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="691" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E691" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="689" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E689" s="2" t="s">
+    <row r="692" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E692" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="690" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E690" s="2" t="s">
+    <row r="693" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E693" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="694" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E694" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="691" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E691" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="692" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E692" s="2" t="s">
+    <row r="695" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E695" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="693" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E693" s="2" t="s">
+    <row r="696" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E696" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="694" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E694" s="2" t="s">
+    <row r="697" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E697" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="695" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E695" s="2" t="s">
+    <row r="698" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E698" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="696" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E696" s="2" t="s">
+    <row r="699" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E699" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="697" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E697" s="2" t="s">
+    <row r="700" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E700" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="698" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E698" s="2" t="s">
+    <row r="701" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E701" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="699" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E699" s="2" t="s">
+    <row r="702" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E702" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="700" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E700" s="2" t="s">
+    <row r="703" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E703" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="704" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E704" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="701" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E701" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="702" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E702" s="2" t="s">
+    <row r="705" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B705" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E705" s="2"/>
+    </row>
+    <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E706" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="703" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B703" s="5" t="s">
+    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E707" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B708" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="E703" s="2"/>
-    </row>
-    <row r="704" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E704" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="705" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E705" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B706" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E706" s="2"/>
-    </row>
-    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E707" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E708" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="E708" s="2"/>
     </row>
     <row r="709" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E709" s="1" t="s">
-        <v>746</v>
+        <v>409</v>
       </c>
     </row>
     <row r="710" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E710" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B711" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="E711" s="1"/>
+      <c r="E711" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E712" s="2" t="s">
-        <v>748</v>
+      <c r="E712" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B713" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="E713" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="E713" s="1"/>
     </row>
     <row r="714" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E714" s="1" t="s">
-        <v>413</v>
+      <c r="E714" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E715" s="1" t="s">
-        <v>750</v>
-      </c>
+      <c r="B715" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E715" s="2"/>
     </row>
     <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E716" s="2" t="s">
-        <v>414</v>
+      <c r="E716" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B717" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="E717" s="2"/>
+      <c r="E717" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E718" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="719" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A719"/>
-      <c r="B719" s="10"/>
-      <c r="C719" s="11"/>
-      <c r="D719" s="22"/>
-      <c r="E719" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F719" s="23"/>
-      <c r="G719" s="24"/>
-      <c r="H719" s="25"/>
-      <c r="I719" s="26"/>
-      <c r="J719" s="26"/>
-      <c r="K719" s="26"/>
-      <c r="L719" s="26"/>
-      <c r="M719" s="26"/>
-    </row>
-    <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B719" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E719" s="2"/>
+    </row>
+    <row r="720" spans="1:13" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A720" s="3"/>
+      <c r="B720" s="5"/>
+      <c r="C720" s="7"/>
+      <c r="D720" s="6"/>
       <c r="E720" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F720" s="3"/>
+      <c r="G720" s="3"/>
+      <c r="H720" s="3"/>
+      <c r="I720" s="26"/>
+      <c r="J720" s="26"/>
+      <c r="K720" s="26"/>
+      <c r="L720" s="26"/>
+      <c r="M720" s="26"/>
+    </row>
+    <row r="721" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A721"/>
+      <c r="B721" s="10"/>
+      <c r="C721" s="11"/>
+      <c r="D721" s="22"/>
+      <c r="E721" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F721" s="23"/>
+      <c r="G721" s="24"/>
+      <c r="H721" s="25"/>
+    </row>
+    <row r="722" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E722" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E723" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E724" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="721" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E721" s="9" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="722" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E722" s="1" t="s">
+    <row r="725" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E725" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="723" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E723" s="1" t="s">
+    <row r="726" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E726" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="724" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E724" s="1" t="s">
+    <row r="727" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E727" s="9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E728" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="725" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E725" s="9" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="726" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E726" s="1" t="s">
+    <row r="729" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E730" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="727" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E727" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="728" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E728" s="2" t="s">
+    <row r="731" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E731" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E732" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="729" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E729" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="730" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E730" s="2" t="s">
+    <row r="733" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E733" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="731" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E731" s="2" t="s">
+    <row r="734" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E734" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="732" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E732" s="2" t="s">
+    <row r="735" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E735" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="733" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E733" s="2" t="s">
+    <row r="736" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E736" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E737" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="734" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E734" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="735" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E735" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="736" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E736" s="3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E737" s="9" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E738" s="2" t="s">
-        <v>752</v>
+    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E738" s="3" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="739" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E739" s="3" t="s">
-        <v>951</v>
+      <c r="E739" s="9" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="740" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E740" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B741" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E741" s="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E741" s="3" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="742" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E742" s="2" t="s">
-        <v>919</v>
+        <v>425</v>
       </c>
     </row>
     <row r="743" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E743" s="2" t="s">
-        <v>427</v>
-      </c>
+      <c r="B743" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E743" s="2"/>
     </row>
     <row r="744" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E744" s="2" t="s">
-        <v>428</v>
+        <v>916</v>
       </c>
     </row>
     <row r="745" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E745" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D746" s="9"/>
-      <c r="E746" s="9" t="s">
-        <v>1003</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E746" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="747" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D747" s="9"/>
-      <c r="E747" s="20" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E747" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D748" s="9"/>
-      <c r="E748" s="20" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E748" s="9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D749" s="9"/>
-      <c r="E749" s="9" t="s">
-        <v>1019</v>
+      <c r="E749" s="20" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="750" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D750" s="9"/>
       <c r="E750" s="20" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D751" s="9"/>
-      <c r="E751" s="20" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E751" s="9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D752" s="9"/>
-      <c r="E752" s="9" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E752" s="20" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D753" s="9"/>
-      <c r="E753" s="9" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="754" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E753" s="20" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D754" s="9"/>
-      <c r="E754" s="20" t="s">
-        <v>1008</v>
+      <c r="E754" s="9" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="755" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D755" s="9"/>
       <c r="E755" s="9" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="756" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A756" s="17"/>
-      <c r="B756" s="18"/>
-      <c r="C756" s="18"/>
-      <c r="D756" s="19"/>
-      <c r="E756" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="F756" s="16"/>
-      <c r="G756" s="16"/>
-      <c r="H756" s="16"/>
-      <c r="I756" s="17"/>
-      <c r="J756" s="17"/>
-      <c r="K756" s="17"/>
-      <c r="L756" s="17"/>
-      <c r="M756" s="17"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D756" s="9"/>
+      <c r="E756" s="20" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="757" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A757" s="17"/>
-      <c r="B757" s="18"/>
-      <c r="C757" s="18"/>
-      <c r="D757" s="19"/>
-      <c r="E757" s="20" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G757" s="16"/>
-      <c r="H757" s="16"/>
+      <c r="A757" s="3"/>
+      <c r="B757" s="5"/>
+      <c r="C757" s="7"/>
+      <c r="E757" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="F757" s="3"/>
+      <c r="G757" s="3"/>
+      <c r="H757" s="3"/>
       <c r="I757" s="17"/>
       <c r="J757" s="17"/>
       <c r="K757" s="17"/>
@@ -20570,8 +20839,9 @@
       <c r="C758" s="18"/>
       <c r="D758" s="19"/>
       <c r="E758" s="9" t="s">
-        <v>1010</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="F758" s="16"/>
       <c r="G758" s="16"/>
       <c r="H758" s="16"/>
       <c r="I758" s="17"/>
@@ -20586,9 +20856,8 @@
       <c r="C759" s="18"/>
       <c r="D759" s="19"/>
       <c r="E759" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F759" s="16"/>
+        <v>1006</v>
+      </c>
       <c r="G759" s="16"/>
       <c r="H759" s="16"/>
       <c r="I759" s="17"/>
@@ -20602,10 +20871,9 @@
       <c r="B760" s="18"/>
       <c r="C760" s="18"/>
       <c r="D760" s="19"/>
-      <c r="E760" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F760" s="16"/>
+      <c r="E760" s="9" t="s">
+        <v>1007</v>
+      </c>
       <c r="G760" s="16"/>
       <c r="H760" s="16"/>
       <c r="I760" s="17"/>
@@ -20620,7 +20888,7 @@
       <c r="C761" s="18"/>
       <c r="D761" s="19"/>
       <c r="E761" s="20" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="F761" s="16"/>
       <c r="G761" s="16"/>
@@ -20631,1734 +20899,1857 @@
       <c r="L761" s="17"/>
       <c r="M761" s="17"/>
     </row>
-    <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D762" s="9"/>
+    <row r="762" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A762" s="17"/>
+      <c r="B762" s="18"/>
+      <c r="C762" s="18"/>
+      <c r="D762" s="19"/>
       <c r="E762" s="20" t="s">
-        <v>991</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="F762" s="16"/>
+      <c r="G762" s="16"/>
+      <c r="H762" s="16"/>
+      <c r="I762" s="17"/>
+      <c r="J762" s="17"/>
+      <c r="K762" s="17"/>
+      <c r="L762" s="17"/>
+      <c r="M762" s="17"/>
     </row>
     <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D763" s="9"/>
-      <c r="E763" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A763" s="17"/>
+      <c r="B763" s="18"/>
+      <c r="C763" s="18"/>
+      <c r="D763" s="19"/>
+      <c r="E763" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="F763" s="16"/>
+      <c r="G763" s="16"/>
+      <c r="H763" s="16"/>
+    </row>
+    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D764" s="9"/>
-      <c r="E764" s="9" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E765" s="2" t="s">
-        <v>429</v>
+      <c r="E764" s="20" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D765" s="9"/>
+      <c r="E765" s="9" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D766" s="9"/>
       <c r="E766" s="9" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E767" s="2" t="s">
-        <v>754</v>
+        <v>428</v>
       </c>
     </row>
     <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D768" s="9"/>
       <c r="E768" s="9" t="s">
-        <v>1020</v>
+        <v>989</v>
       </c>
     </row>
     <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E769" s="2" t="s">
-        <v>430</v>
+        <v>752</v>
       </c>
     </row>
     <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E770" s="3" t="s">
-        <v>921</v>
+      <c r="D770" s="9"/>
+      <c r="E770" s="9" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E771" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B772" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E772" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E773" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B774" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E774" s="2"/>
+    </row>
+    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C775" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E775" s="2"/>
+    </row>
+    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C776" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E776" s="2"/>
+    </row>
+    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E777" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B778" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E772" s="2"/>
-    </row>
-    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C773" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="E773" s="2"/>
-    </row>
-    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C774" s="7" t="s">
+      <c r="E778" s="2"/>
+    </row>
+    <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C779" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="E774" s="2"/>
-    </row>
-    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E775" s="2" t="s">
+      <c r="E779" s="2"/>
+    </row>
+    <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C780" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E780" s="2"/>
+    </row>
+    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E781" s="2" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B776" s="5" t="s">
+    <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B782" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E782" s="2"/>
+    </row>
+    <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C783" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="E776" s="2"/>
-    </row>
-    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C777" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="E777" s="2"/>
-    </row>
-    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C778" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="E778" s="2"/>
-    </row>
-    <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E779" s="2" t="s">
+      <c r="E783" s="2"/>
+    </row>
+    <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C784" s="7" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B780" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="E780" s="2"/>
-    </row>
-    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C781" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="E781" s="2"/>
-    </row>
-    <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C782" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="E782" s="2"/>
-    </row>
-    <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E783" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E784" s="1" t="s">
-        <v>959</v>
-      </c>
+      <c r="E784" s="2"/>
     </row>
     <row r="785" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E785" s="1" t="s">
-        <v>432</v>
+        <v>955</v>
       </c>
     </row>
     <row r="786" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E786" s="1" t="s">
-        <v>433</v>
+        <v>956</v>
       </c>
     </row>
     <row r="787" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E787" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="788" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E788" s="2" t="s">
-        <v>435</v>
+      <c r="E788" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E789" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="790" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E790" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="791" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E791" s="2" t="s">
-        <v>438</v>
+      <c r="E791" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="792" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E792" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="793" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E793" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="794" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E794" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="795" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E795" s="1" t="s">
-        <v>442</v>
+      <c r="E795" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="796" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E796" s="1" t="s">
-        <v>960</v>
+      <c r="E796" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="797" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E797" s="1" t="s">
-        <v>961</v>
+        <v>441</v>
       </c>
     </row>
     <row r="798" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E798" s="1" t="s">
-        <v>443</v>
+        <v>957</v>
       </c>
     </row>
     <row r="799" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E799" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="800" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E800" s="1" t="s">
-        <v>963</v>
+        <v>442</v>
       </c>
     </row>
     <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E801" s="1" t="s">
-        <v>444</v>
+        <v>959</v>
       </c>
     </row>
     <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E802" s="1" t="s">
-        <v>445</v>
+        <v>960</v>
       </c>
     </row>
     <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E803" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E804" s="2" t="s">
-        <v>447</v>
+      <c r="E804" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E805" s="1" t="s">
-        <v>964</v>
+        <v>445</v>
       </c>
     </row>
     <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E806" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E807" s="2" t="s">
-        <v>449</v>
+      <c r="E807" s="1" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E808" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E809" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E810" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E811" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E812" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E813" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E814" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E815" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E816" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="817" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A817" s="17"/>
-      <c r="B817" s="18"/>
-      <c r="C817" s="18"/>
-      <c r="D817" s="19"/>
-      <c r="E817" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="F817" s="16"/>
-      <c r="G817" s="16"/>
-      <c r="H817" s="16"/>
-      <c r="I817" s="17"/>
-      <c r="J817" s="17"/>
-      <c r="K817" s="17"/>
-      <c r="L817" s="17"/>
-      <c r="M817" s="17"/>
-    </row>
-    <row r="818" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E817" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A818" s="3"/>
+      <c r="B818" s="5"/>
+      <c r="C818" s="7"/>
+      <c r="D818" s="6"/>
       <c r="E818" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="819" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="F818" s="3"/>
+      <c r="G818" s="3"/>
+      <c r="H818" s="3"/>
+      <c r="I818" s="17"/>
+      <c r="J818" s="17"/>
+      <c r="K818" s="17"/>
+      <c r="L818" s="17"/>
+      <c r="M818" s="17"/>
+    </row>
+    <row r="819" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A819" s="17"/>
+      <c r="B819" s="18"/>
+      <c r="C819" s="18"/>
+      <c r="D819" s="19"/>
+      <c r="E819" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="F819" s="16"/>
+      <c r="G819" s="16"/>
+      <c r="H819" s="16"/>
     </row>
     <row r="820" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E820" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="821" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E821" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="822" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E822" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="823" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E823" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="824" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E824" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="825" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E825" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="826" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E826" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="827" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E827" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="828" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E828" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="829" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E829" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E830" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E831" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B832" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E832" s="2"/>
+    </row>
+    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D833" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E833" s="2"/>
+    </row>
+    <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E834" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B830" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="E830" s="2"/>
-    </row>
-    <row r="831" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D831" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E831" s="2"/>
-    </row>
-    <row r="832" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E832" s="4" t="s">
+    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E835" s="2" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B834" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="E834" s="2"/>
-    </row>
-    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E835" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B836" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="E836" s="1"/>
+        <v>762</v>
+      </c>
+      <c r="E836" s="2"/>
     </row>
     <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E837" s="2" t="s">
-        <v>768</v>
+      <c r="E837" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E838" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B838" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E838" s="1"/>
     </row>
     <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E839" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E840" s="9" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B841" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E841" s="2"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E840" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E841" s="27" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C842" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="E842" s="2"/>
-    </row>
-    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E843" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E844" s="2" t="s">
-        <v>475</v>
+      <c r="E842" s="27" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E843" s="27" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E844" s="27" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B845" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E845" s="2"/>
-    </row>
-    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E846" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E847" s="2" t="s">
-        <v>770</v>
+      <c r="E845" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E846" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E847" s="9" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E848" s="9" t="s">
-        <v>1024</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B849" s="5" t="s">
-        <v>771</v>
+        <v>876</v>
       </c>
       <c r="E849" s="2"/>
     </row>
-    <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E850" s="1" t="s">
-        <v>772</v>
-      </c>
+    <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C850" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="E850" s="2"/>
     </row>
     <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B851" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E851" s="1"/>
+      <c r="E851" s="2" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E852" s="1" t="s">
-        <v>774</v>
+      <c r="E852" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B853" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E853" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="E853" s="2"/>
     </row>
     <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E854" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E855" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E856" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B857" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E857" s="2"/>
+    </row>
+    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E858" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B859" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E859" s="1"/>
+    </row>
+    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E860" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B861" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E861" s="1"/>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E863" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E864" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E855" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E856" s="1" t="s">
+    <row r="865" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E865" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E866" s="30" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E867" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="2" t="s">
+    <row r="868" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B868" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E868" s="2"/>
+    </row>
+    <row r="869" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E869" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B870" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E870" s="2"/>
+    </row>
+    <row r="871" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E871" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B858" s="5" t="s">
+    <row r="872" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E872" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E873" s="9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E874" s="20" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E875" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E876" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B877" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E877" s="1"/>
+    </row>
+    <row r="878" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E878" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E879" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A880" s="3"/>
+      <c r="B880" s="5"/>
+      <c r="C880" s="7"/>
+      <c r="D880" s="6"/>
+      <c r="E880" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="F880" s="3"/>
+      <c r="G880" s="3"/>
+      <c r="H880" s="3"/>
+      <c r="I880" s="3"/>
+      <c r="J880" s="17"/>
+      <c r="K880" s="17"/>
+      <c r="L880" s="17"/>
+      <c r="M880" s="17"/>
+    </row>
+    <row r="881" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A881" s="3"/>
+      <c r="B881" s="5"/>
+      <c r="C881" s="7"/>
+      <c r="D881" s="6"/>
+      <c r="E881" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F881" s="3"/>
+      <c r="G881" s="3"/>
+      <c r="H881" s="3"/>
+      <c r="I881" s="17"/>
+      <c r="J881" s="17"/>
+      <c r="K881" s="17"/>
+      <c r="L881" s="17"/>
+      <c r="M881" s="17"/>
+    </row>
+    <row r="882" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A882" s="3"/>
+      <c r="B882" s="5"/>
+      <c r="C882" s="7"/>
+      <c r="D882" s="6"/>
+      <c r="E882" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F882" s="3"/>
+      <c r="G882" s="3"/>
+      <c r="H882" s="3"/>
+      <c r="I882" s="17"/>
+      <c r="J882" s="17"/>
+      <c r="K882" s="17"/>
+      <c r="L882" s="17"/>
+      <c r="M882" s="17"/>
+    </row>
+    <row r="883" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A883" s="17"/>
+      <c r="B883" s="18"/>
+      <c r="C883" s="18"/>
+      <c r="D883" s="19"/>
+      <c r="E883" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="G883" s="16"/>
+      <c r="H883" s="16"/>
+      <c r="I883" s="17"/>
+      <c r="J883" s="17"/>
+      <c r="K883" s="17"/>
+      <c r="L883" s="17"/>
+      <c r="M883" s="17"/>
+    </row>
+    <row r="884" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A884" s="17"/>
+      <c r="B884" s="18"/>
+      <c r="C884" s="18"/>
+      <c r="D884" s="19"/>
+      <c r="E884" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G884" s="16"/>
+      <c r="H884" s="16"/>
+      <c r="I884" s="17"/>
+      <c r="J884" s="17"/>
+      <c r="K884" s="17"/>
+      <c r="L884" s="17"/>
+      <c r="M884" s="17"/>
+    </row>
+    <row r="885" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A885" s="17"/>
+      <c r="B885" s="18"/>
+      <c r="C885" s="18"/>
+      <c r="D885" s="19"/>
+      <c r="E885" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="F885" s="16"/>
+      <c r="G885" s="16"/>
+      <c r="H885" s="16"/>
+      <c r="I885" s="17"/>
+      <c r="J885" s="17"/>
+      <c r="K885" s="17"/>
+      <c r="L885" s="17"/>
+      <c r="M885" s="17"/>
+    </row>
+    <row r="886" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A886" s="17"/>
+      <c r="B886" s="18"/>
+      <c r="C886" s="18"/>
+      <c r="D886" s="19"/>
+      <c r="E886" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="F886" s="16"/>
+      <c r="G886" s="16"/>
+      <c r="H886" s="16"/>
+      <c r="I886" s="17"/>
+      <c r="J886" s="17"/>
+      <c r="K886" s="17"/>
+      <c r="L886" s="17"/>
+      <c r="M886" s="17"/>
+    </row>
+    <row r="887" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A887" s="17"/>
+      <c r="B887" s="18"/>
+      <c r="C887" s="18"/>
+      <c r="D887" s="19"/>
+      <c r="E887" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="F887" s="16"/>
+      <c r="G887" s="16"/>
+      <c r="H887" s="16"/>
+      <c r="I887" s="17"/>
+    </row>
+    <row r="888" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A888" s="17"/>
+      <c r="B888" s="18"/>
+      <c r="C888" s="18"/>
+      <c r="D888" s="19"/>
+      <c r="E888" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F888" s="16"/>
+      <c r="G888" s="16"/>
+      <c r="H888" s="16"/>
+    </row>
+    <row r="889" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A889" s="17"/>
+      <c r="B889" s="18"/>
+      <c r="C889" s="18"/>
+      <c r="D889" s="19"/>
+      <c r="E889" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F889" s="16"/>
+      <c r="G889" s="16"/>
+      <c r="H889" s="16"/>
+    </row>
+    <row r="890" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E890" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E891" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E892" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="893" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E893" s="9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="894" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E894" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E895" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="896" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E896" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E897" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="E858" s="2"/>
-    </row>
-    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E859" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B860" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E860" s="2"/>
-    </row>
-    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E861" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E862" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E863" s="9" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E864" s="20" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="865" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E865" s="9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="866" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E866" s="9" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="867" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B867" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E867" s="1"/>
-    </row>
-    <row r="868" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E868" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="869" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E869" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="870" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E870" s="9" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="871" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E871" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="872" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E872" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="873" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A873" s="17"/>
-      <c r="B873" s="18"/>
-      <c r="C873" s="18"/>
-      <c r="D873" s="19"/>
-      <c r="E873" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="G873" s="16"/>
-      <c r="H873" s="16"/>
-      <c r="I873" s="17"/>
-      <c r="J873" s="17"/>
-      <c r="K873" s="17"/>
-      <c r="L873" s="17"/>
-      <c r="M873" s="17"/>
-    </row>
-    <row r="874" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A874" s="17"/>
-      <c r="B874" s="18"/>
-      <c r="C874" s="18"/>
-      <c r="D874" s="19"/>
-      <c r="E874" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G874" s="16"/>
-      <c r="H874" s="16"/>
-      <c r="I874" s="17"/>
-      <c r="J874" s="17"/>
-      <c r="K874" s="17"/>
-      <c r="L874" s="17"/>
-      <c r="M874" s="17"/>
-    </row>
-    <row r="875" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A875" s="17"/>
-      <c r="B875" s="18"/>
-      <c r="C875" s="18"/>
-      <c r="D875" s="19"/>
-      <c r="E875" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="F875" s="16"/>
-      <c r="G875" s="16"/>
-      <c r="H875" s="16"/>
-      <c r="I875" s="17"/>
-      <c r="J875" s="17"/>
-      <c r="K875" s="17"/>
-      <c r="L875" s="17"/>
-      <c r="M875" s="17"/>
-    </row>
-    <row r="876" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A876" s="17"/>
-      <c r="B876" s="18"/>
-      <c r="C876" s="18"/>
-      <c r="D876" s="19"/>
-      <c r="E876" s="20" t="s">
-        <v>997</v>
-      </c>
-      <c r="F876" s="16"/>
-      <c r="G876" s="16"/>
-      <c r="H876" s="16"/>
-      <c r="I876" s="17"/>
-      <c r="J876" s="17"/>
-      <c r="K876" s="17"/>
-      <c r="L876" s="17"/>
-      <c r="M876" s="17"/>
-    </row>
-    <row r="877" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A877" s="17"/>
-      <c r="B877" s="18"/>
-      <c r="C877" s="18"/>
-      <c r="D877" s="19"/>
-      <c r="E877" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="F877" s="16"/>
-      <c r="G877" s="16"/>
-      <c r="H877" s="16"/>
-      <c r="I877" s="17"/>
-      <c r="J877" s="17"/>
-      <c r="K877" s="17"/>
-      <c r="L877" s="17"/>
-      <c r="M877" s="17"/>
-    </row>
-    <row r="878" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A878" s="17"/>
-      <c r="B878" s="18"/>
-      <c r="C878" s="18"/>
-      <c r="D878" s="19"/>
-      <c r="E878" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F878" s="16"/>
-      <c r="G878" s="16"/>
-      <c r="H878" s="16"/>
-      <c r="I878" s="17"/>
-      <c r="J878" s="17"/>
-      <c r="K878" s="17"/>
-      <c r="L878" s="17"/>
-      <c r="M878" s="17"/>
-    </row>
-    <row r="879" spans="1:13" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A879" s="17"/>
-      <c r="B879" s="18"/>
-      <c r="C879" s="18"/>
-      <c r="D879" s="19"/>
-      <c r="E879" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F879" s="16"/>
-      <c r="G879" s="16"/>
-      <c r="H879" s="16"/>
-      <c r="I879" s="17"/>
-      <c r="J879" s="17"/>
-      <c r="K879" s="17"/>
-      <c r="L879" s="17"/>
-      <c r="M879" s="17"/>
-    </row>
-    <row r="880" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E880" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E881" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="882" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E882" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E883" s="9" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E884" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="885" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E885" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E886" s="2" t="s">
+    </row>
+    <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E898" s="2" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="887" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E887" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="888" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E888" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E889" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E890" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E891" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E892" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E893" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E894" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E895" s="9" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B896" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E896" s="2"/>
-    </row>
-    <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D897" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E897" s="2"/>
-    </row>
-    <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E898" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="899" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E899" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="900" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B900" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E900" s="2"/>
+      <c r="E900" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="901" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E901" s="1" t="s">
-        <v>503</v>
+      <c r="E901" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="902" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E902" s="2" t="s">
-        <v>640</v>
+        <v>497</v>
       </c>
     </row>
     <row r="903" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E903" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="904" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B904" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E904" s="2"/>
-    </row>
-    <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E905" s="2" t="s">
-        <v>505</v>
+      <c r="E904" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E905" s="9" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="906" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E906" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="B906" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E906" s="2"/>
     </row>
     <row r="907" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B907" s="5" t="s">
-        <v>779</v>
+      <c r="D907" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="E907" s="2"/>
     </row>
     <row r="908" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E908" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E909" s="1" t="s">
-        <v>780</v>
+      <c r="E909" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B910" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E910" s="1"/>
+        <v>637</v>
+      </c>
+      <c r="E910" s="2"/>
     </row>
     <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E911" s="1" t="s">
-        <v>613</v>
+        <v>502</v>
       </c>
     </row>
     <row r="912" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B912" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="E912" s="1"/>
+      <c r="E912" s="2" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="913" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E913" s="2" t="s">
-        <v>667</v>
+        <v>503</v>
       </c>
     </row>
     <row r="914" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B914" s="5" t="s">
-        <v>811</v>
+        <v>610</v>
       </c>
       <c r="E914" s="2"/>
     </row>
-    <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C915" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="E915" s="2"/>
-    </row>
-    <row r="916" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C916" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E916" s="2"/>
-    </row>
-    <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C917" s="7" t="s">
-        <v>642</v>
+    <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E915" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="916" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E916" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B917" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="E917" s="2"/>
     </row>
     <row r="918" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E918" s="4" t="s">
-        <v>508</v>
+      <c r="E918" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="919" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E919" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E920" s="1" t="s">
-        <v>510</v>
+      <c r="E919" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E920" s="21" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E921" s="2" t="s">
-        <v>511</v>
-      </c>
+      <c r="B921" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E921" s="1"/>
     </row>
     <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E922" s="2" t="s">
-        <v>512</v>
+      <c r="E922" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="923" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E923" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="B923" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E923" s="1"/>
     </row>
     <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E924" s="2" t="s">
-        <v>514</v>
+        <v>665</v>
       </c>
     </row>
     <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E925" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E926" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E927" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E928" s="2" t="s">
-        <v>518</v>
-      </c>
+      <c r="B925" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E925" s="2"/>
+    </row>
+    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C926" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="E926" s="2"/>
+    </row>
+    <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C927" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E927" s="2"/>
+    </row>
+    <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C928" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E928" s="2"/>
     </row>
     <row r="929" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E929" s="2" t="s">
-        <v>519</v>
+      <c r="E929" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="930" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E930" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="931" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E931" s="2" t="s">
-        <v>521</v>
+      <c r="E931" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="932" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E932" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="933" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E933" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="934" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E934" s="1" t="s">
-        <v>524</v>
+      <c r="E934" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="935" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E935" s="1" t="s">
-        <v>525</v>
+      <c r="E935" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="936" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E936" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="937" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E937" s="2" t="s">
-        <v>527</v>
+      <c r="E937" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="938" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E938" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="939" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E939" s="1" t="s">
-        <v>529</v>
+      <c r="E939" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="940" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E940" s="1" t="s">
-        <v>530</v>
+      <c r="E940" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="941" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E941" s="1" t="s">
-        <v>531</v>
+      <c r="E941" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="942" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E942" s="2" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="943" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E943" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="944" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E944" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="945" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E945" s="2" t="s">
-        <v>535</v>
+      <c r="E945" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="946" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E946" s="2" t="s">
-        <v>536</v>
+      <c r="E946" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="947" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E947" s="2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="948" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E948" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="949" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E949" s="2" t="s">
-        <v>539</v>
+      <c r="E949" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="950" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E950" s="2" t="s">
-        <v>540</v>
+      <c r="E950" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="951" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E951" s="2" t="s">
-        <v>541</v>
+      <c r="E951" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="952" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E952" s="2" t="s">
-        <v>542</v>
+      <c r="E952" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="953" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E953" s="1" t="s">
-        <v>543</v>
+      <c r="E953" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="954" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E954" s="2" t="s">
-        <v>614</v>
+        <v>532</v>
       </c>
     </row>
     <row r="955" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E955" s="2" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="956" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E956" s="2" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="957" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E957" s="1" t="s">
-        <v>546</v>
+      <c r="E957" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="958" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E958" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="959" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E959" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="960" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E960" s="2" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="961" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E961" s="2" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="962" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E962" s="2" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="963" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E963" s="2" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="964" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E964" s="2" t="s">
-        <v>553</v>
+      <c r="E964" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="965" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E965" s="2" t="s">
-        <v>885</v>
+        <v>612</v>
       </c>
     </row>
     <row r="966" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E966" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="967" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E967" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="968" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E968" s="2" t="s">
-        <v>974</v>
+      <c r="E968" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="969" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E969" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="970" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E970" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="971" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E971" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="972" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E972" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="973" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E973" s="1" t="s">
-        <v>560</v>
+      <c r="E973" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="974" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E974" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="975" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E975" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="976" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E976" s="2" t="s">
-        <v>973</v>
+        <v>882</v>
       </c>
     </row>
     <row r="977" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B977" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="E977" s="2"/>
+      <c r="E977" s="2" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E978" s="1" t="s">
-        <v>952</v>
+      <c r="E978" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E979" s="1" t="s">
-        <v>957</v>
+      <c r="E979" s="2" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E980" s="1" t="s">
-        <v>953</v>
+      <c r="E980" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E981" s="1" t="s">
-        <v>954</v>
+      <c r="E981" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E982" s="1" t="s">
-        <v>955</v>
+      <c r="E982" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B983" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E983" s="1"/>
+      <c r="E983" s="2" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E984" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E985" s="1" t="s">
-        <v>564</v>
+      <c r="E985" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E986" s="1" t="s">
-        <v>782</v>
+      <c r="E986" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E987" s="2" t="s">
-        <v>565</v>
+        <v>970</v>
       </c>
     </row>
     <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E988" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="B988" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="E988" s="2"/>
     </row>
     <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B989" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="E989" s="2"/>
+      <c r="E989" s="1" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E990" s="1" t="s">
-        <v>886</v>
+        <v>954</v>
       </c>
     </row>
     <row r="991" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B991" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="E991" s="1"/>
+      <c r="E991" s="1" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E992" s="1" t="s">
-        <v>784</v>
+        <v>951</v>
       </c>
     </row>
     <row r="993" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B993" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E993" s="1"/>
+      <c r="E993" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="994" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E994" s="2" t="s">
-        <v>786</v>
-      </c>
+      <c r="B994" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E994" s="1"/>
     </row>
     <row r="995" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B995" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E995" s="2"/>
-    </row>
-    <row r="996" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D996" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E996" s="2"/>
+      <c r="E995" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="996" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E996" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="997" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E997" s="2" t="s">
-        <v>567</v>
+      <c r="E997" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="998" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B998" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E998" s="2"/>
+      <c r="E998" s="2" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="999" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E999" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1000" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1000" s="1" t="s">
-        <v>569</v>
-      </c>
+      <c r="B1000" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1000" s="2"/>
     </row>
     <row r="1001" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1001" s="1" t="s">
-        <v>570</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1002" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1002" s="1" t="s">
-        <v>571</v>
-      </c>
+      <c r="B1002" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E1002" s="1"/>
     </row>
     <row r="1003" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1003" s="2" t="s">
-        <v>572</v>
+      <c r="E1003" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="1004" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1004" s="2" t="s">
-        <v>573</v>
-      </c>
+      <c r="B1004" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1004" s="1"/>
     </row>
     <row r="1005" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1005" s="2" t="s">
-        <v>574</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1006" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1006" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1007" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="B1006" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E1006" s="2"/>
+    </row>
+    <row r="1007" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1007" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E1007" s="2"/>
     </row>
     <row r="1008" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1008" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="E1008" s="1"/>
+      <c r="E1008" s="2" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="1009" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1009" s="2" t="s">
-        <v>795</v>
-      </c>
+      <c r="B1009" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1009" s="2"/>
     </row>
     <row r="1010" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1010" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="E1010" s="2"/>
+      <c r="E1010" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="1011" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1011" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1012" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E1012" s="1"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1012" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="1013" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1013" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="E1013" s="1"/>
+      <c r="E1013" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="1014" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1014" s="2" t="s">
-        <v>577</v>
+      <c r="E1014" s="1" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1015" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1015" s="1" t="s">
-        <v>578</v>
+      <c r="E1015" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="1016" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1016" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1017" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1017" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1018" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1018" s="2" t="s">
-        <v>793</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1019" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1019" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E1019" s="2"/>
+      <c r="E1019" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="1020" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1020" s="2" t="s">
-        <v>644</v>
-      </c>
+      <c r="B1020" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E1020" s="1"/>
     </row>
     <row r="1021" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1021" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E1021" s="2"/>
+      <c r="E1021" s="2" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="1022" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1022" s="1" t="s">
-        <v>797</v>
-      </c>
+      <c r="B1022" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="E1022" s="2"/>
     </row>
     <row r="1023" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1023" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1024" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1025" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E1025" s="2"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1024" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E1024" s="1"/>
+    </row>
+    <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D1025" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E1025" s="1"/>
     </row>
     <row r="1026" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D1026" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="E1026" s="2"/>
+      <c r="E1026" s="2" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1027" s="1" t="s">
-        <v>647</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1028" s="1" t="s">
-        <v>976</v>
+      <c r="E1028" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1029" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1030" s="9" t="s">
-        <v>978</v>
+      <c r="E1029" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1030" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="1031" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1031" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E1031" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="E1031" s="2"/>
     </row>
     <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1032" s="2" t="s">
-        <v>800</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1033" s="5" t="s">
-        <v>645</v>
+        <v>793</v>
       </c>
       <c r="E1033" s="2"/>
     </row>
     <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1034" s="2" t="s">
-        <v>583</v>
+      <c r="E1034" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1035" s="2" t="s">
-        <v>646</v>
+      <c r="E1035" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1036" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1037" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1037" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E1037" s="2"/>
     </row>
     <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1038" s="5" t="s">
-        <v>801</v>
+      <c r="D1038" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="E1038" s="2"/>
     </row>
     <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1039" s="4" t="s">
-        <v>586</v>
+      <c r="E1039" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="1040" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1040" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1041" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1042" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1043" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1043" s="1"/>
+    </row>
+    <row r="1044" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1044" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1045" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1045" s="2"/>
+    </row>
+    <row r="1046" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1046" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1047" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1048" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1049" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1050" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E1050" s="2"/>
+    </row>
+    <row r="1051" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1051" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1052" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1053" s="21" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1054" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1055" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="1041" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1041" s="21" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1042" s="2" t="s">
+    <row r="1056" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1056" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1057" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1058" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1059" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1060" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1061" s="3"/>
+      <c r="B1061" s="5"/>
+      <c r="C1061" s="7"/>
+      <c r="D1061" s="6"/>
+      <c r="E1061" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1061" s="3"/>
+      <c r="G1061" s="3"/>
+      <c r="H1061" s="3"/>
+      <c r="I1061" s="3"/>
+      <c r="J1061" s="26"/>
+      <c r="K1061" s="26"/>
+      <c r="L1061" s="26"/>
+      <c r="M1061" s="26"/>
+    </row>
+    <row r="1062" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1062" s="3"/>
+      <c r="B1062" s="5"/>
+      <c r="C1062" s="7"/>
+      <c r="D1062" s="6"/>
+      <c r="E1062" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1062" s="3"/>
+      <c r="G1062" s="3"/>
+      <c r="H1062" s="3"/>
+      <c r="I1062" s="3"/>
+      <c r="J1062" s="26"/>
+      <c r="K1062" s="26"/>
+      <c r="L1062" s="26"/>
+      <c r="M1062" s="26"/>
+      <c r="N1062" s="12"/>
+    </row>
+    <row r="1063" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1063" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1063" s="26"/>
+    </row>
+    <row r="1064" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1064" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I1064" s="26"/>
+    </row>
+    <row r="1065" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1065"/>
+      <c r="B1065" s="10"/>
+      <c r="C1065" s="11"/>
+      <c r="E1065" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F1065" s="23"/>
+      <c r="G1065" s="24"/>
+      <c r="H1065" s="25"/>
+    </row>
+    <row r="1066" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1066"/>
+      <c r="B1066" s="10"/>
+      <c r="C1066" s="11"/>
+      <c r="D1066" s="12"/>
+      <c r="E1066" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F1066" s="23"/>
+      <c r="G1066" s="24"/>
+      <c r="H1066" s="25"/>
+    </row>
+    <row r="1067" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1067" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1068" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1069" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1070" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1070" s="2"/>
+    </row>
+    <row r="1071" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1071" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1072" s="5" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="1043" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1043" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1044" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1045" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1046" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1047" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1048" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1049" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1050" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1051" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1052" s="9" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1053"/>
-      <c r="B1053" s="10"/>
-      <c r="C1053" s="11"/>
-      <c r="D1053" s="6"/>
-      <c r="E1053" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F1053" s="23"/>
-      <c r="G1053" s="24"/>
-      <c r="H1053" s="25"/>
-      <c r="I1053" s="26"/>
-      <c r="J1053" s="26"/>
-      <c r="K1053" s="26"/>
-      <c r="L1053" s="26"/>
-      <c r="M1053" s="26"/>
-    </row>
-    <row r="1054" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1054"/>
-      <c r="B1054" s="10"/>
-      <c r="C1054" s="11"/>
-      <c r="D1054" s="12"/>
-      <c r="E1054" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F1054" s="23"/>
-      <c r="G1054" s="24"/>
-      <c r="H1054" s="25"/>
-      <c r="I1054" s="26"/>
-      <c r="J1054" s="26"/>
-      <c r="K1054" s="26"/>
-      <c r="L1054" s="26"/>
-      <c r="M1054" s="26"/>
-      <c r="N1054" s="12"/>
-    </row>
-    <row r="1055" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1055" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1056" s="2" t="s">
+      <c r="E1072" s="1"/>
+    </row>
+    <row r="1073" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1073" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1074" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1074" s="1"/>
+    </row>
+    <row r="1075" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1075" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="1057" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1057" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1058" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1058" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="E1058" s="2"/>
-    </row>
-    <row r="1059" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1059" s="1" t="s">
+    <row r="1076" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1076" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1077" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1078" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1079" s="5" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="1060" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1060" s="5" t="s">
+      <c r="E1079" s="2"/>
+    </row>
+    <row r="1080" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1080" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="E1060" s="1"/>
-    </row>
-    <row r="1061" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1061" s="1" t="s">
+    </row>
+    <row r="1081" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1081" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1082" s="5" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="1062" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1062" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E1062" s="1"/>
-    </row>
-    <row r="1063" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1063" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="1064" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1064" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="1065" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1065" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="1066" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1066" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="1067" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1067" s="5" t="s">
+      <c r="E1082" s="1"/>
+    </row>
+    <row r="1083" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1083" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="E1067" s="2"/>
-    </row>
-    <row r="1068" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1068" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="1069" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1069" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="1070" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1070" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1070" s="1"/>
-    </row>
-    <row r="1071" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1071" s="2" t="s">
-        <v>810</v>
       </c>
     </row>
   </sheetData>
